--- a/EconomicProject/Examples/Report_E1.xlsx
+++ b/EconomicProject/Examples/Report_E1.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>-1140:-1083</t>
+    <t>-1116:-1058</t>
   </si>
   <si>
-    <t>-1083:-1025</t>
+    <t>-1058:-1000</t>
   </si>
   <si>
-    <t>-1025:-968</t>
+    <t>-1000:-942</t>
   </si>
   <si>
-    <t>-968:-910</t>
+    <t>-942:-885</t>
   </si>
   <si>
-    <t>-910:-853</t>
+    <t>-885:-827</t>
   </si>
   <si>
-    <t>-853:-795</t>
+    <t>-827:-769</t>
   </si>
   <si>
-    <t>-795:-738</t>
+    <t>-769:-711</t>
   </si>
   <si>
-    <t>-738:-680</t>
+    <t>-711:-653</t>
   </si>
   <si>
-    <t>-680:-623</t>
+    <t>-653:-595</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1140:-1083</c:v>
+                  <c:v>-1116:-1058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1083:-1025</c:v>
+                  <c:v>-1058:-1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1025:-968</c:v>
+                  <c:v>-1000:-942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-968:-910</c:v>
+                  <c:v>-942:-885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-910:-853</c:v>
+                  <c:v>-885:-827</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-853:-795</c:v>
+                  <c:v>-827:-769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-795:-738</c:v>
+                  <c:v>-769:-711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-738:-680</c:v>
+                  <c:v>-711:-653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-680:-623</c:v>
+                  <c:v>-653:-595</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24134,13 +24134,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>-1008.168160233383</v>
+        <v>-855.5848867564846</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24148,13 +24148,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>-918.2352464420437</v>
+        <v>-1057.218372637154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24162,13 +24162,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>-739.0146796963733</v>
+        <v>-795.6282105103522</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24176,13 +24176,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>-776.462995323399</v>
+        <v>-942.8822302683627</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24190,13 +24190,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>-665.5066039291089</v>
+        <v>-954.9957839054483</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24204,13 +24204,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>-887.0650154140581</v>
+        <v>-1036.055688114083</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24218,13 +24218,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>-871.4142083329981</v>
+        <v>-907.1705598396975</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24232,13 +24232,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>-771.1179390774349</v>
+        <v>-734.4125192802486</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24246,13 +24246,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>-980.3289496856532</v>
+        <v>-842.8783232341516</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24260,7 +24260,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>-785.6918680804667</v>
+        <v>-775.4835894317659</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24268,7 +24268,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>-1057.242095920815</v>
+        <v>-1044.018871155474</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>-865.378745001137</v>
+        <v>-729.5553847285914</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>-907.4368183347441</v>
+        <v>-931.465481154574</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>-792.6028013731257</v>
+        <v>-757.3847271093392</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>-1042.466421059942</v>
+        <v>-760.0831832955453</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24308,7 +24308,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>-916.6676128203768</v>
+        <v>-882.2977046871401</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>-849.7269423354624</v>
+        <v>-990.1949377126632</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>-976.1168432816172</v>
+        <v>-909.9621378009419</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>-877.6331547044369</v>
+        <v>-849.4272982795827</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>-792.5889056030817</v>
+        <v>-836.566165545152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>-794.7517771591155</v>
+        <v>-1061.385446365251</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>-873.4307350947173</v>
+        <v>-774.0610519991665</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>-643.1622129580139</v>
+        <v>-767.3350445974822</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>-960.2523947464335</v>
+        <v>-788.0766686808806</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>-762.3455584667466</v>
+        <v>-868.5873758552668</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>-916.35595381003</v>
+        <v>-912.3667727308234</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>-1022.524731245699</v>
+        <v>-1028.530848085782</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>-694.171711348507</v>
+        <v>-900.4886399828871</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>-843.2982329530532</v>
+        <v>-761.11833585533</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>-864.9580863827359</v>
+        <v>-946.8560017214894</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>-987.1216847480415</v>
+        <v>-903.1883287111053</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>-704.9869034243443</v>
+        <v>-801.6373195357394</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>-884.7162329772972</v>
+        <v>-864.8257492124826</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>-832.1585048316749</v>
+        <v>-652.9737128939014</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>-873.5287485913703</v>
+        <v>-804.0593985208671</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>-856.4612236427744</v>
+        <v>-902.9332853689963</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>-680.7374959615316</v>
+        <v>-884.1586266722942</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>-937.2971838866744</v>
+        <v>-695.1309079161384</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>-930.9250366874091</v>
+        <v>-802.9511106035399</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>-921.4554231776461</v>
+        <v>-944.3052020211933</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>-946.0714696225808</v>
+        <v>-981.2809063005236</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>-796.8442325857278</v>
+        <v>-899.667025443602</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>-945.7062007804124</v>
+        <v>-724.2493872850937</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>-852.7981783642606</v>
+        <v>-647.6605829266668</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>-940.5240289112475</v>
+        <v>-1004.579255736126</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>-814.6015132468409</v>
+        <v>-825.1626033358775</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>-734.296193557434</v>
+        <v>-1059.692585941073</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>-907.7828119595654</v>
+        <v>-905.7374506972276</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>-935.1955307683399</v>
+        <v>-728.9105102620347</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>-1030.840598662323</v>
+        <v>-874.269242449854</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>-933.7874360965257</v>
+        <v>-761.5235194068467</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>-842.1213456299675</v>
+        <v>-840.5239860242943</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>-764.2142714975781</v>
+        <v>-846.6936253933959</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>-888.3087999594208</v>
+        <v>-801.7128565710924</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>-794.7546092267148</v>
+        <v>-692.31727144689</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>-709.9396926232905</v>
+        <v>-776.2440634718287</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>-836.1348844290904</v>
+        <v>-989.5755487510964</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>-799.7252779101549</v>
+        <v>-954.6389957163041</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>-902.9547003753879</v>
+        <v>-808.7643151224351</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>-949.2839292460089</v>
+        <v>-829.7193104292285</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>-722.5248342085736</v>
+        <v>-917.4308817554888</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>-813.4332565682571</v>
+        <v>-917.1830437973417</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>-796.8673849521917</v>
+        <v>-775.2625560313631</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>-811.4867756643124</v>
+        <v>-951.2871679032602</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>-868.6950560710084</v>
+        <v>-797.9986642874532</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>-923.7830627178137</v>
+        <v>-1065.260942909165</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>-921.7435905857216</v>
+        <v>-826.574357869852</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>-704.5285311040589</v>
+        <v>-998.234745551036</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>-1083.415590968028</v>
+        <v>-1066.664347424844</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>-1060.903664333502</v>
+        <v>-782.6920374101718</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>-819.3298140535388</v>
+        <v>-831.9983357366349</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>-790.1910435096829</v>
+        <v>-824.5944375961817</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>-796.6794173049002</v>
+        <v>-894.0485019126432</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>-792.7133307793904</v>
+        <v>-918.2213200856139</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>-749.4932439104724</v>
+        <v>-1063.451679775284</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>-939.1413265293836</v>
+        <v>-778.5322497240628</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>-729.6100781478368</v>
+        <v>-892.512024080616</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>-971.1229797887484</v>
+        <v>-846.5133804724857</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>-1015.798714477758</v>
+        <v>-735.7593898663309</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>-940.7079229736557</v>
+        <v>-801.8890335879966</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>-731.6774404826859</v>
+        <v>-926.4953488964821</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>-879.671420540964</v>
+        <v>-955.1384389890952</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>-913.2196117652614</v>
+        <v>-721.3930163364274</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>-922.0020114929549</v>
+        <v>-856.4126184080649</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>-1002.378830929816</v>
+        <v>-778.1956715970298</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>-1090.073803787229</v>
+        <v>-937.1919933211076</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>-793.0968294753261</v>
+        <v>-698.2671654092728</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>-817.705647547769</v>
+        <v>-896.0580231236999</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>-1036.363144129375</v>
+        <v>-870.3671153243843</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>-791.5653365448879</v>
+        <v>-740.650717860242</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>-830.6760702197679</v>
+        <v>-959.2809510182962</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>-1032.248257073289</v>
+        <v>-710.5516432242811</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>-821.6227511511835</v>
+        <v>-700.4681742324643</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>-967.6774811272027</v>
+        <v>-813.802189963983</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>-820.765605656674</v>
+        <v>-795.5431696802951</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>-762.5517232812076</v>
+        <v>-973.2096298742647</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>-923.7339472301866</v>
+        <v>-862.3060674867343</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>-823.7615857857844</v>
+        <v>-755.1165623864792</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>-921.3298682799897</v>
+        <v>-1005.130420887572</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>-864.9231670071071</v>
+        <v>-844.4456090599627</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>-860.6328109082343</v>
+        <v>-755.6546316554513</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>-902.7718288158048</v>
+        <v>-783.3993217095758</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>-840.8430348927453</v>
+        <v>-912.9076264575148</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>-897.2893143827242</v>
+        <v>-825.9112050572751</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>-1023.779444993693</v>
+        <v>-1064.540876019695</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>-859.4430638753147</v>
+        <v>-1017.96239877468</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>-1007.809155921377</v>
+        <v>-826.688429281966</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>-787.9703459315907</v>
+        <v>-972.4340493915727</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>-854.6738474549848</v>
+        <v>-629.952304923007</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>-1068.673083585526</v>
+        <v>-913.4373958488001</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>-1058.71188606574</v>
+        <v>-776.9394125189104</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>-934.2133505592835</v>
+        <v>-880.4417500835706</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>-834.794522530729</v>
+        <v>-1107.729277658594</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>-661.3804237005186</v>
+        <v>-648.3242215527357</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>-895.3476302363113</v>
+        <v>-855.5665064942128</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>-973.6711536157429</v>
+        <v>-798.1661408218901</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>-681.0929621708875</v>
+        <v>-922.259256552554</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>-939.6572395086984</v>
+        <v>-644.7299085527225</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>-832.9258615520146</v>
+        <v>-889.9414614290863</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>-897.4008865462851</v>
+        <v>-943.6264870316293</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>-1069.49064245185</v>
+        <v>-960.7996994099524</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>-1057.690933656778</v>
+        <v>-653.373976628853</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>-668.2947503098385</v>
+        <v>-792.6174582243151</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>-872.3173728528695</v>
+        <v>-881.486272494767</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>-911.4249184681706</v>
+        <v>-978.9681179229519</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>-741.2041854603578</v>
+        <v>-1042.053523981813</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>-1070.630419698769</v>
+        <v>-826.5387617901807</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>-770.2260368003241</v>
+        <v>-784.5576841736511</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>-940.8154358997432</v>
+        <v>-900.1156263406931</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>-821.606102864877</v>
+        <v>-810.5270961288544</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>-827.1811222054711</v>
+        <v>-838.0702653113512</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>-770.3690979738187</v>
+        <v>-912.5502436656386</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>-834.533873895078</v>
+        <v>-846.690219208542</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>-899.7020240270191</v>
+        <v>-701.408606493377</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>-813.3372829872316</v>
+        <v>-942.4606594524918</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>-783.9273404671526</v>
+        <v>-652.6657085765062</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>-939.304670424291</v>
+        <v>-773.2367553631941</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>-888.7981582710806</v>
+        <v>-903.4690533331188</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>-854.735698981833</v>
+        <v>-917.4184487543668</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>-852.792216050075</v>
+        <v>-741.7652047729484</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>-882.4416027192457</v>
+        <v>-942.9068076010923</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>-814.7841859529959</v>
+        <v>-759.5240446969138</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>-803.1124315668563</v>
+        <v>-855.6013868967424</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>-897.5943844973497</v>
+        <v>-840.7336121668791</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>-898.8107169614607</v>
+        <v>-702.3365570855725</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>-951.9542290935926</v>
+        <v>-779.3475296737494</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>-901.8350988083079</v>
+        <v>-882.427428376752</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>-741.3271960327558</v>
+        <v>-801.477806297592</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>-736.6230435359258</v>
+        <v>-777.2087084833299</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>-872.8142962940999</v>
+        <v>-697.1040454816113</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>-856.027423889358</v>
+        <v>-883.6547401183359</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>-866.673204561082</v>
+        <v>-818.1967885260829</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>-968.0922040456581</v>
+        <v>-1047.898555881444</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>-1028.559866020234</v>
+        <v>-979.1102484437093</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>-927.5535531142958</v>
+        <v>-888.860964324944</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>-820.6439712791126</v>
+        <v>-872.9845714227077</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>-915.5351769834963</v>
+        <v>-668.4942987310285</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>-905.761836741927</v>
+        <v>-686.4782787727136</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>-860.7255090002092</v>
+        <v>-797.0056194703001</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>-810.1818182925355</v>
+        <v>-956.0073248691521</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>-927.7509109443831</v>
+        <v>-836.40925194097</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>-936.7205169136512</v>
+        <v>-945.5260978254057</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>-983.6628096848357</v>
+        <v>-707.9665729465323</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>-744.9866696931398</v>
+        <v>-983.6577302066743</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>-949.0918543503617</v>
+        <v>-1064.255158939043</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>-753.6370275713116</v>
+        <v>-928.2078792340801</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>-1020.644205404673</v>
+        <v>-773.7762731329874</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>-952.7779842327659</v>
+        <v>-906.9544678539573</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>-857.6615008395612</v>
+        <v>-701.8098862688613</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>-977.5480624406658</v>
+        <v>-837.7994913525578</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>-788.2128803033939</v>
+        <v>-834.6041274913491</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>-808.299576393843</v>
+        <v>-887.6475666695258</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>-913.0839534877364</v>
+        <v>-748.1941987387685</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>-858.5340937961118</v>
+        <v>-731.1977361912583</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>-989.0293828714298</v>
+        <v>-869.1459062681649</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>-768.7085417909276</v>
+        <v>-1018.286091103493</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>-822.7494349163039</v>
+        <v>-835.3996047113751</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>-989.9835925226429</v>
+        <v>-1026.486692900673</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>-845.4163512597495</v>
+        <v>-744.4210465890274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>-742.7392729036926</v>
+        <v>-833.899162343335</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>-660.783094364446</v>
+        <v>-887.7787588896382</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>-1052.537467897959</v>
+        <v>-1048.371073949679</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>-731.1377686193339</v>
+        <v>-987.6568702830184</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>-824.1934589191828</v>
+        <v>-802.3616099890154</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>-821.2594940117622</v>
+        <v>-744.9026800280958</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>-883.2766103136615</v>
+        <v>-1011.596329975849</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>-955.8326534297253</v>
+        <v>-1006.426802345485</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>-787.677781487845</v>
+        <v>-732.4834924356945</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>-692.3556137138626</v>
+        <v>-782.333795844982</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>-1023.618539818107</v>
+        <v>-730.6083792202509</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>-851.6345749529415</v>
+        <v>-965.1814197647415</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>-927.5136857853945</v>
+        <v>-1007.154533576542</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>-942.4948211024112</v>
+        <v>-990.3780614309543</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>-1006.221829010576</v>
+        <v>-936.2895888093462</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>-738.8186416682958</v>
+        <v>-693.9725413264958</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>-887.6648692976808</v>
+        <v>-935.8960224030701</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>-809.6782501609057</v>
+        <v>-852.6989067135428</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>-834.3572819356193</v>
+        <v>-996.8570135304055</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>-842.3140457986643</v>
+        <v>-758.7910609677809</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>-718.3437261840822</v>
+        <v>-928.6606322120388</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>-987.8127144775434</v>
+        <v>-963.3983431611739</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>-658.3839419068407</v>
+        <v>-859.423399847682</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>-810.2817952669902</v>
+        <v>-871.1797306962634</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>-1071.250058841286</v>
+        <v>-840.912306216949</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>-950.3061958999457</v>
+        <v>-852.3882948317748</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>-878.725060527786</v>
+        <v>-866.5146176351726</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>-1026.901057255066</v>
+        <v>-828.1329570731561</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>-791.858745065774</v>
+        <v>-685.1976163507148</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>-893.9612236096176</v>
+        <v>-691.985491630777</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>-1089.669728517575</v>
+        <v>-880.3985069924619</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>-1020.776605463195</v>
+        <v>-818.554932659482</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>-982.5374657357506</v>
+        <v>-977.3135370826535</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>-921.396882045972</v>
+        <v>-904.9275175754005</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>-1008.36245581672</v>
+        <v>-755.065363964983</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>-972.0855999167161</v>
+        <v>-908.3016986879517</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>-1019.095089681041</v>
+        <v>-787.5980582499436</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>-859.9878400930822</v>
+        <v>-684.7319464977286</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>-887.4689608404411</v>
+        <v>-926.0567509985158</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>-754.5549718390572</v>
+        <v>-773.2226289195727</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>-670.9945292317069</v>
+        <v>-816.1850107196303</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>-1038.093687231</v>
+        <v>-787.389345602344</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>-1009.527044777242</v>
+        <v>-894.8968182539339</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>-735.9650360090117</v>
+        <v>-832.121328648031</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>-1038.35123081298</v>
+        <v>-1103.106675767154</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>-848.1019741926675</v>
+        <v>-972.5019533852275</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>-1054.880626055648</v>
+        <v>-839.0408281885938</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>-928.8915347120386</v>
+        <v>-973.0781925113995</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>-705.5393052374584</v>
+        <v>-1029.967206385613</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>-829.8332312355689</v>
+        <v>-790.3173969868075</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>-1007.934351245892</v>
+        <v>-850.7377650722452</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>-915.8015224342181</v>
+        <v>-855.1748938322166</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>-1031.471428683846</v>
+        <v>-926.4911499515736</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>-754.9736560281339</v>
+        <v>-815.8318875807277</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>-893.2871436489633</v>
+        <v>-919.8210437565333</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>-818.9162707066312</v>
+        <v>-821.0615080974613</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>-900.6995599685889</v>
+        <v>-863.579571252444</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>-996.8080804334675</v>
+        <v>-917.3523212005557</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>-686.3519193641224</v>
+        <v>-946.9558678685985</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>-757.2879575734787</v>
+        <v>-1003.120710232318</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>-850.1368132932053</v>
+        <v>-939.1627697220698</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>-728.3244551369582</v>
+        <v>-835.3409558193006</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>-782.0567808567378</v>
+        <v>-958.2424039613716</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>-776.5159052101961</v>
+        <v>-818.5139962022174</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>-677.6435485285134</v>
+        <v>-854.6793422542062</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>-655.6859284292101</v>
+        <v>-760.505518053816</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>-798.954223002282</v>
+        <v>-816.3440257729746</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>-860.5051221663909</v>
+        <v>-1098.659684863829</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>-842.1090338090073</v>
+        <v>-746.4305615965726</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>-856.9190180053611</v>
+        <v>-960.5279340901436</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>-1045.535537022292</v>
+        <v>-779.0156153693704</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>-750.6973659062025</v>
+        <v>-981.427162291374</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>-775.2606340391288</v>
+        <v>-850.606463491198</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>-678.2717528534906</v>
+        <v>-683.5399675844142</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>-1000.76543100603</v>
+        <v>-862.8425302407395</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>-1026.678426304772</v>
+        <v>-997.690185046753</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>-772.2395142772158</v>
+        <v>-1015.183758765095</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>-796.2635661302694</v>
+        <v>-821.9684734272324</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>-873.7535177017131</v>
+        <v>-814.2769765498047</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>-914.2025877566966</v>
+        <v>-988.3159076483608</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>-959.7357753272712</v>
+        <v>-986.9087276546429</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>-1035.309322019625</v>
+        <v>-797.7553948639433</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>-779.6672530249915</v>
+        <v>-971.3831497784148</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>-950.8871573156158</v>
+        <v>-830.7041358191426</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>-914.3957861342906</v>
+        <v>-792.7303058108248</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>-751.8356100695927</v>
+        <v>-868.9035542851539</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>-851.4569851119828</v>
+        <v>-736.5897866815094</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>-696.0424095950192</v>
+        <v>-1047.300638414408</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>-842.8864929803311</v>
+        <v>-1056.661958261643</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>-948.4760515345318</v>
+        <v>-838.7691182455344</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>-863.1487216795559</v>
+        <v>-815.1479894612299</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>-946.1152156205652</v>
+        <v>-725.2395692401815</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>-891.0573402756011</v>
+        <v>-840.6907586273987</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>-839.5334974681393</v>
+        <v>-800.6813222884598</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>-922.6269951964966</v>
+        <v>-842.7447626932552</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>-782.6205834878234</v>
+        <v>-898.6672156236754</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>-862.5115331667574</v>
+        <v>-962.9595208378043</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>-879.1197351127958</v>
+        <v>-832.6800480681974</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>-1046.783926468614</v>
+        <v>-875.4073234358546</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>-847.0522181498604</v>
+        <v>-800.0190312700468</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>-733.6781725526142</v>
+        <v>-894.8242082392813</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>-876.9706188654592</v>
+        <v>-1041.315143562845</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>-925.7747459115177</v>
+        <v>-788.4017227707631</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>-887.8340174447164</v>
+        <v>-952.1363847299654</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>-894.0883526080922</v>
+        <v>-867.9847832232301</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>-808.1774272537014</v>
+        <v>-815.2368003091741</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>-738.6257088630746</v>
+        <v>-894.379544232219</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>-765.5931975989567</v>
+        <v>-806.6895183121883</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>-792.5087892649207</v>
+        <v>-709.16839093713</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>-961.8195094977979</v>
+        <v>-991.2884991986156</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>-855.9619517194666</v>
+        <v>-657.4766525181603</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>-996.1370328437339</v>
+        <v>-863.0621043930554</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>-965.2885271010883</v>
+        <v>-921.9689944056952</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>-734.7070632786911</v>
+        <v>-841.0646650228953</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>-907.6371604131615</v>
+        <v>-1104.196273799794</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>-908.9931657708701</v>
+        <v>-792.0530050686936</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>-820.9375684574517</v>
+        <v>-1038.142836213166</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>-1015.611204338776</v>
+        <v>-1061.493941894877</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>-845.2504270088129</v>
+        <v>-782.01100809451</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>-943.1734967009673</v>
+        <v>-952.2807755057468</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>-756.3004110205558</v>
+        <v>-782.1874670700286</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>-1018.593665637145</v>
+        <v>-823.1245822829723</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>-940.7939040393162</v>
+        <v>-843.9831749351215</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>-997.1380760815705</v>
+        <v>-812.5182406853155</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>-1140.189702503708</v>
+        <v>-700.0650357669418</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>-1072.900474181968</v>
+        <v>-836.041436831705</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>-954.5216071851971</v>
+        <v>-862.7157373386804</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>-1064.597668171</v>
+        <v>-900.2238973288864</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>-800.4344781106136</v>
+        <v>-984.760717962635</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>-706.6110703908748</v>
+        <v>-995.2661805039518</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>-782.7447134146512</v>
+        <v>-666.5110557175473</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>-885.4372880081171</v>
+        <v>-909.8472264224883</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>-997.357588814111</v>
+        <v>-874.0351154109779</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>-772.6642961481612</v>
+        <v>-942.809641860524</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>-728.4313906279557</v>
+        <v>-963.091639356202</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>-865.1214441492258</v>
+        <v>-868.0043983889515</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>-802.5362115486971</v>
+        <v>-887.0264540449972</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>-740.8361793417806</v>
+        <v>-1005.055032615287</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>-833.552248828118</v>
+        <v>-773.4444553321169</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>-741.3165657411856</v>
+        <v>-852.1235596670449</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>-794.1552656211576</v>
+        <v>-943.1354232154958</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>-942.5159756845353</v>
+        <v>-909.4443775053126</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>-941.6454088490851</v>
+        <v>-757.812676082057</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>-880.71203401293</v>
+        <v>-828.9644419761426</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>-886.9411668832751</v>
+        <v>-985.0173042786731</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>-805.1759536066364</v>
+        <v>-758.4308070433606</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>-681.3892401821597</v>
+        <v>-769.7318079187781</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>-890.2450286587805</v>
+        <v>-868.2496494082631</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>-799.9655270783277</v>
+        <v>-800.0662826757883</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>-835.4162488474708</v>
+        <v>-890.4717884522042</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>-835.2170268683809</v>
+        <v>-848.3223956059228</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>-1048.008355454309</v>
+        <v>-909.2973626336158</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>-903.6286890341561</v>
+        <v>-1068.580990210128</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>-882.5275919525624</v>
+        <v>-800.1006437517361</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>-1104.527741804997</v>
+        <v>-734.8427667679873</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>-705.0825483693699</v>
+        <v>-764.1390699490047</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>-741.7917138884229</v>
+        <v>-985.8953106774037</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>-987.3916198283458</v>
+        <v>-910.036903943763</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>-716.1450782854105</v>
+        <v>-820.0192195092936</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>-930.5886530248633</v>
+        <v>-827.5693671412624</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>-836.7495991458727</v>
+        <v>-778.4103334080985</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>-887.0815384710259</v>
+        <v>-889.131479772185</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>-901.6741334928137</v>
+        <v>-897.2985345207827</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>-964.4066130787062</v>
+        <v>-940.4900029819892</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>-918.1336398547436</v>
+        <v>-999.6519790781795</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>-727.8169299213025</v>
+        <v>-826.4273483732484</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>-987.9865087181502</v>
+        <v>-930.6930253875014</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>-963.2957994149798</v>
+        <v>-874.6924100769837</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>-1044.266596783258</v>
+        <v>-856.0815592856894</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>-905.2692001038661</v>
+        <v>-842.5171444542819</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>-930.1505779943013</v>
+        <v>-992.4493065096437</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>-940.7543475130224</v>
+        <v>-886.0681492443748</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>-689.4397860460972</v>
+        <v>-1080.623877752444</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>-983.9679577745424</v>
+        <v>-782.5527168068261</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>-874.7375692060845</v>
+        <v>-854.1094292858012</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>-880.5480292841265</v>
+        <v>-801.0970170383544</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>-899.6028944999779</v>
+        <v>-833.9218630830437</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>-867.6213269628089</v>
+        <v>-757.4653569976239</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>-884.4563890958788</v>
+        <v>-850.144251409836</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>-773.919353293462</v>
+        <v>-658.6428105371889</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>-846.1876808483472</v>
+        <v>-764.4741893649121</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>-919.4704383424232</v>
+        <v>-769.2303927761247</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>-917.3362194033061</v>
+        <v>-886.1031029942056</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>-1020.149462561531</v>
+        <v>-701.4742670861343</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>-931.8213826554544</v>
+        <v>-832.3105161306024</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>-800.980986623903</v>
+        <v>-923.0932781505298</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>-920.2691293142711</v>
+        <v>-771.3879958579743</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>-847.1139547698461</v>
+        <v>-796.3665414822913</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>-904.1637834679815</v>
+        <v>-861.3712145153536</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>-938.5328208208267</v>
+        <v>-782.2301982319437</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>-854.2138855159743</v>
+        <v>-857.245131077258</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>-917.3994207783098</v>
+        <v>-960.2556107769561</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>-1020.424661975476</v>
+        <v>-809.3010191592248</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>-930.0565079117775</v>
+        <v>-1019.078355107863</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>-1043.847428745642</v>
+        <v>-900.9702653281155</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>-975.6422083721217</v>
+        <v>-955.2779979440337</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>-840.2597640853206</v>
+        <v>-784.1701058519998</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>-997.1676862720292</v>
+        <v>-873.0756699997962</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>-841.2256870508215</v>
+        <v>-1016.38329424223</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>-844.4592068415775</v>
+        <v>-659.8221744982668</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>-721.0569090364876</v>
+        <v>-916.0475593038173</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>-765.0742090869834</v>
+        <v>-685.0447070081464</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>-739.6508475699193</v>
+        <v>-787.0689061451147</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>-816.7741270224473</v>
+        <v>-963.5578337711563</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>-825.782813050964</v>
+        <v>-737.4225635287227</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>-966.939969637431</v>
+        <v>-782.3806410933576</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>-1007.057839421971</v>
+        <v>-877.4262089473804</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>-882.387541329066</v>
+        <v>-832.7590307980782</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>-826.8108300223146</v>
+        <v>-969.4696410850945</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>-814.0697713541721</v>
+        <v>-746.4768797288716</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>-863.9542077005027</v>
+        <v>-904.1994940042595</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>-762.5181129532031</v>
+        <v>-1009.330660379012</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>-921.9905710247261</v>
+        <v>-797.001503496928</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>-1014.171273836782</v>
+        <v>-895.4370819283444</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>-802.9668682276516</v>
+        <v>-746.5857896611803</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>-915.5776637627743</v>
+        <v>-956.4473483762609</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>-812.1996406060089</v>
+        <v>-778.6634502759941</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>-773.350092931043</v>
+        <v>-619.0374541713476</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>-820.9662992198123</v>
+        <v>-902.6979603327633</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>-837.1892940679137</v>
+        <v>-851.7986598774745</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>-941.9701987076099</v>
+        <v>-809.2938575115824</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>-637.9653318899939</v>
+        <v>-662.688098408421</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>-994.3333464814541</v>
+        <v>-938.5989557941341</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>-652.1998439382866</v>
+        <v>-966.9643898442617</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>-947.8915226544814</v>
+        <v>-962.0095816220623</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>-842.3648679392873</v>
+        <v>-850.9277220765241</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>-946.3763394540323</v>
+        <v>-799.8995939822054</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>-922.5026497752269</v>
+        <v>-641.866073585748</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>-995.2361855170155</v>
+        <v>-852.4132770762741</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>-950.8699864861521</v>
+        <v>-1071.758903043357</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>-856.1661553246657</v>
+        <v>-1004.69263319961</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>-984.2702839999862</v>
+        <v>-932.0722886815523</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>-920.9298736209475</v>
+        <v>-839.7205757738817</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>-967.2679645295799</v>
+        <v>-1037.715209763262</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>-838.005114620605</v>
+        <v>-732.6131037047301</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>-733.6100220980057</v>
+        <v>-871.6201466135736</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>-953.1689027197192</v>
+        <v>-902.5707731998593</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>-945.0563310415029</v>
+        <v>-1013.772236988517</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>-678.6868729080018</v>
+        <v>-875.8743486912801</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>-865.9650897324606</v>
+        <v>-897.1408316785812</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>-846.679454892859</v>
+        <v>-766.240268238696</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>-876.6905258185418</v>
+        <v>-698.5842524982675</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>-1029.76521900297</v>
+        <v>-818.313127721556</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>-858.5576081618273</v>
+        <v>-830.8799707099412</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>-918.7757497920314</v>
+        <v>-825.7364820328356</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>-872.0269226876509</v>
+        <v>-888.2128085130711</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>-783.049673956222</v>
+        <v>-1074.067720324223</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>-682.8186288635176</v>
+        <v>-766.2992816382477</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>-864.9454325216398</v>
+        <v>-886.1963383089437</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>-945.3671758045217</v>
+        <v>-1035.080578971664</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>-848.4843135563673</v>
+        <v>-888.1334939974822</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>-881.4027274655052</v>
+        <v>-935.0231506612223</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>-978.9683531290408</v>
+        <v>-862.7920542294204</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>-863.8688822754131</v>
+        <v>-897.0875194195195</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>-829.0889959673632</v>
+        <v>-913.2853860973089</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>-995.2124618735726</v>
+        <v>-870.5239977304886</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>-956.9953442412259</v>
+        <v>-939.6185792933184</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>-865.5938352578861</v>
+        <v>-832.9780336722181</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>-855.4687514164211</v>
+        <v>-971.8090582945886</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>-883.1141537880981</v>
+        <v>-1079.211577138594</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>-846.3955227096661</v>
+        <v>-985.7152719299813</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>-1033.009409478178</v>
+        <v>-765.8450960019603</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>-990.2832614205714</v>
+        <v>-944.447784707417</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>-726.1812204116562</v>
+        <v>-862.1651451650534</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>-833.9084808269295</v>
+        <v>-865.6640461718609</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>-1017.389538022185</v>
+        <v>-866.4962828571623</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>-761.0946121666707</v>
+        <v>-884.0895033805932</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>-908.2898363025425</v>
+        <v>-1051.12459290217</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>-913.4320110182849</v>
+        <v>-1032.590364512794</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>-1011.142142258392</v>
+        <v>-891.9575765855018</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>-844.0359353732331</v>
+        <v>-665.7678780073231</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>-673.423257274162</v>
+        <v>-734.4957339088609</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>-894.6816343011731</v>
+        <v>-1028.496670461755</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>-926.5643778391487</v>
+        <v>-673.2792049294862</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>-991.8903054064775</v>
+        <v>-893.7454827864361</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>-1034.542695087481</v>
+        <v>-930.2513224031461</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>-1025.499319779943</v>
+        <v>-815.5188562831488</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>-754.6912326607912</v>
+        <v>-748.4958153557109</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>-719.2550599822464</v>
+        <v>-1010.410759035212</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>-947.9892833863518</v>
+        <v>-897.7953806357932</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>-815.451851032313</v>
+        <v>-809.9317081620859</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>-807.3179657085071</v>
+        <v>-993.7257815840036</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>-700.7748678972466</v>
+        <v>-983.1047899464226</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>-853.0916813977869</v>
+        <v>-833.5953867497781</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>-881.8603476876449</v>
+        <v>-757.5799685456334</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>-745.0019723727236</v>
+        <v>-765.571807821442</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>-1066.525123143168</v>
+        <v>-861.8489158886277</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>-950.1705347889912</v>
+        <v>-718.4353876173612</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>-932.5092780441985</v>
+        <v>-735.9968383405555</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>-1061.200882115473</v>
+        <v>-728.0135799524146</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>-841.5276270538591</v>
+        <v>-914.0542024569522</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>-920.269188324833</v>
+        <v>-959.8737411651301</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>-884.0336671950487</v>
+        <v>-966.1340754092491</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>-725.0266394814757</v>
+        <v>-885.9523086222243</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>-988.7325727074634</v>
+        <v>-818.9431380317017</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>-787.4874194018323</v>
+        <v>-1023.922248810337</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>-879.0611614214341</v>
+        <v>-762.9500662703866</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>-984.3917545327263</v>
+        <v>-768.1013907980722</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>-684.5329372682739</v>
+        <v>-964.4401284206083</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>-931.2996915699653</v>
+        <v>-915.5713024762056</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>-993.858273745113</v>
+        <v>-901.3790933309178</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>-893.6271818070957</v>
+        <v>-961.7920984276846</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>-750.4927637623772</v>
+        <v>-979.6916440428952</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>-673.3343764387486</v>
+        <v>-932.0421287117912</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>-796.1881712994269</v>
+        <v>-832.420246538143</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>-871.8310293490496</v>
+        <v>-993.2877434378837</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>-952.090815612748</v>
+        <v>-865.9441252962495</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>-945.1469831668031</v>
+        <v>-922.5778627408857</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>-890.7397008522638</v>
+        <v>-805.9899373119326</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>-1090.39297858167</v>
+        <v>-836.4750472894269</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>-1006.523147286566</v>
+        <v>-978.9641373102799</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>-825.8542305490217</v>
+        <v>-1007.978849451836</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>-950.2631751996405</v>
+        <v>-635.2199886695702</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>-692.9309109754349</v>
+        <v>-748.8651496472296</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>-860.2925287296007</v>
+        <v>-826.2304029532801</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>-923.9083433315063</v>
+        <v>-837.3580639311571</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>-954.4967692672423</v>
+        <v>-1057.569076579041</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>-749.2767330752956</v>
+        <v>-781.2724279869446</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>-892.7604628271071</v>
+        <v>-928.1502758172194</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>-818.181609504489</v>
+        <v>-729.0270171333088</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>-939.6369264010034</v>
+        <v>-701.2932884273991</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>-798.8016765837309</v>
+        <v>-843.0548880731515</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>-1025.847920240768</v>
+        <v>-857.1341815685544</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>-791.5650989049353</v>
+        <v>-696.5755246445431</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>-824.5915297854953</v>
+        <v>-938.1126451430796</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>-736.4059738985777</v>
+        <v>-911.3135151290797</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>-851.1086959502699</v>
+        <v>-917.210233057644</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>-937.5192973696963</v>
+        <v>-973.2753322835184</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>-947.91861359514</v>
+        <v>-755.1660176566834</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>-908.9923412231144</v>
+        <v>-991.4365847665279</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>-869.3308456455604</v>
+        <v>-776.5178693141664</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>-890.6493961833906</v>
+        <v>-785.4001813787505</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>-845.934105437104</v>
+        <v>-932.0412870347568</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>-863.3304315012124</v>
+        <v>-786.2615724457737</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>-813.2510809927892</v>
+        <v>-899.3190162704851</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>-799.6482447258744</v>
+        <v>-826.5244130861821</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>-1011.800524594406</v>
+        <v>-845.6676410182248</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>-724.6313461164132</v>
+        <v>-893.1453980538496</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>-932.022309055552</v>
+        <v>-915.6207332901081</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>-938.8832127195301</v>
+        <v>-711.1623813529008</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>-891.725581787314</v>
+        <v>-642.5238029138264</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>-778.8415500902396</v>
+        <v>-1009.606566280054</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>-751.2826869478998</v>
+        <v>-849.1186963947176</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>-692.9741852049847</v>
+        <v>-787.6852279577537</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>-865.604759557953</v>
+        <v>-938.0754674930882</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>-818.0549056047432</v>
+        <v>-851.8531717478189</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>-907.7247491443835</v>
+        <v>-865.3584711855236</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>-959.5402090570542</v>
+        <v>-1048.580387409774</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>-837.1429322878749</v>
+        <v>-1026.27304694186</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>-913.5014801427245</v>
+        <v>-1027.991246324281</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>-834.8895146013609</v>
+        <v>-643.8796299616938</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>-824.8970373423666</v>
+        <v>-839.6231080497488</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>-931.9764664201854</v>
+        <v>-861.79304254746</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>-928.2693848399419</v>
+        <v>-886.7805462368327</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>-785.4388504754995</v>
+        <v>-821.991602865608</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>-935.1063291719064</v>
+        <v>-852.0936583271513</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>-752.6171987791927</v>
+        <v>-674.0543201085807</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>-906.1084076547797</v>
+        <v>-873.2739896844056</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>-929.4999195253781</v>
+        <v>-800.8829891872324</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>-919.7546207820458</v>
+        <v>-880.2448381051449</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>-1052.506097126875</v>
+        <v>-1009.221150251249</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>-880.7003907046047</v>
+        <v>-990.8569467228754</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>-1059.812629631088</v>
+        <v>-978.3473772526268</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>-808.6433962740153</v>
+        <v>-949.6090862365908</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>-838.8541914263964</v>
+        <v>-927.895926895371</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>-945.6571153208785</v>
+        <v>-840.2855119169245</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>-758.7911147438392</v>
+        <v>-814.0106559006159</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>-826.05464762085</v>
+        <v>-1052.57549244916</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>-930.1526751438084</v>
+        <v>-990.205352819696</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>-929.3468976210899</v>
+        <v>-1071.899272178563</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>-855.3729015116836</v>
+        <v>-655.368759912073</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>-805.5722288872104</v>
+        <v>-907.5235312200119</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>-816.1274593617788</v>
+        <v>-819.0967010465956</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>-866.6151242607865</v>
+        <v>-663.8287124539086</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>-952.7133604843586</v>
+        <v>-898.5344242110501</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>-941.9090403144625</v>
+        <v>-914.1623633661166</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>-895.4319785203497</v>
+        <v>-890.7568105990498</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>-1096.630637221427</v>
+        <v>-817.6474151598713</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>-730.5384501990067</v>
+        <v>-655.0157804130978</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>-848.3423786668642</v>
+        <v>-832.3648144775858</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>-866.5120838302068</v>
+        <v>-995.2242145917596</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>-815.4991963820396</v>
+        <v>-852.906791785594</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>-803.8690059819305</v>
+        <v>-851.2036184860805</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>-802.8185771298987</v>
+        <v>-953.8807680577786</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>-855.3750471833864</v>
+        <v>-773.366981343056</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>-848.3859348253291</v>
+        <v>-968.6214560661971</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>-965.2913049944004</v>
+        <v>-734.5390447533289</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>-1005.981236404182</v>
+        <v>-764.5039951587343</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>-1063.466996489951</v>
+        <v>-886.8408818298032</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>-870.3624575391646</v>
+        <v>-917.0121179861754</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>-950.6888630462705</v>
+        <v>-746.5958580413889</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>-890.0324210978603</v>
+        <v>-795.843662240813</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>-922.4193029564317</v>
+        <v>-1030.99772957194</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>-684.142813925883</v>
+        <v>-970.091734231437</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>-958.8826824628828</v>
+        <v>-1009.476639297472</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>-999.123277328379</v>
+        <v>-792.0717254145983</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>-775.7903462682034</v>
+        <v>-806.7189858155434</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>-914.4173914650296</v>
+        <v>-812.0466443283349</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>-947.5749337624322</v>
+        <v>-1116.136833130723</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>-895.9526131376851</v>
+        <v>-852.5007943068816</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>-823.2604115884441</v>
+        <v>-878.4012451397282</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>-849.3474578475689</v>
+        <v>-799.3551111873279</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>-1052.279555821948</v>
+        <v>-916.2457966090616</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>-927.3444491552356</v>
+        <v>-971.6784106239852</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>-843.4948459523201</v>
+        <v>-855.6522759310435</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>-901.7215684988588</v>
+        <v>-745.7280594195702</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>-1016.842108211084</v>
+        <v>-661.7320664563092</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>-875.1463575768029</v>
+        <v>-942.7195616802885</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>-835.3177816446712</v>
+        <v>-1015.802607408897</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>-897.2665973576438</v>
+        <v>-938.1057759178058</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>-787.636708142481</v>
+        <v>-892.4136773377342</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>-705.530708575319</v>
+        <v>-784.6444437693913</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>-1055.970365359017</v>
+        <v>-843.9407949116282</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>-887.5965927348021</v>
+        <v>-793.8164738901593</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>-839.2189269264296</v>
+        <v>-936.2147878096185</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>-797.6663872648051</v>
+        <v>-910.6050946968016</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>-898.9769467807772</v>
+        <v>-881.1064805305506</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>-823.8163572410796</v>
+        <v>-1050.083134566814</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>-676.7308179469734</v>
+        <v>-855.6944588483217</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>-718.5909134972815</v>
+        <v>-868.3616432763937</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>-853.6506985230876</v>
+        <v>-808.5258425871864</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>-1062.273445059144</v>
+        <v>-914.5489302557461</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>-969.0326193538011</v>
+        <v>-929.2292941352747</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>-650.7535568515735</v>
+        <v>-819.9828806819155</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>-955.2451879260783</v>
+        <v>-970.9496118319623</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>-729.4392864511876</v>
+        <v>-855.5536621144386</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>-958.5670037460837</v>
+        <v>-895.5350542182244</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>-828.8539742033338</v>
+        <v>-831.1809046640299</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>-1029.219768535391</v>
+        <v>-890.9825798434414</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>-1048.052033834577</v>
+        <v>-928.9296337694303</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>-931.3435190486902</v>
+        <v>-724.7930373074886</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>-795.5356558773866</v>
+        <v>-916.5711122289786</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>-762.105062676819</v>
+        <v>-891.8630802942539</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>-737.7298608192457</v>
+        <v>-775.9489953210388</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>-739.8503088918646</v>
+        <v>-1002.114711704712</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>-937.9472750497391</v>
+        <v>-880.3108704762539</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>-861.3142736455818</v>
+        <v>-828.7466196303905</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>-929.8591773724936</v>
+        <v>-870.2075245218855</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>-903.1634145974892</v>
+        <v>-697.2301216129727</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>-920.2616181473053</v>
+        <v>-889.1788107093023</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>-919.3594142445083</v>
+        <v>-1074.010313973764</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>-815.988357248303</v>
+        <v>-881.2667862979824</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>-1064.714450694391</v>
+        <v>-684.571034697606</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>-950.424128684015</v>
+        <v>-884.163581626805</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>-770.0446912028924</v>
+        <v>-731.5339229384934</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>-926.2444155687592</v>
+        <v>-923.6589532521746</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>-720.3042628917324</v>
+        <v>-969.5776777990528</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>-849.6823395499803</v>
+        <v>-945.1028099993636</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>-805.8568850595434</v>
+        <v>-869.5069804261658</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>-715.1215088376885</v>
+        <v>-803.3251081455138</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>-889.0278942446485</v>
+        <v>-1071.743677187446</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>-903.5579959900191</v>
+        <v>-854.2388578269214</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>-756.9957352862644</v>
+        <v>-728.8454510638297</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>-962.2050035144512</v>
+        <v>-972.2146211047138</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>-914.2399859966148</v>
+        <v>-937.6898521386966</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>-795.206955578305</v>
+        <v>-680.0774544843225</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>-1003.282675601388</v>
+        <v>-877.7093289510066</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>-792.6851998081572</v>
+        <v>-994.8080226016996</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>-972.1913176540403</v>
+        <v>-800.6843362933917</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>-951.6239633543499</v>
+        <v>-955.5297137298371</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>-867.9708884388965</v>
+        <v>-845.1220256528804</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>-836.8057498312032</v>
+        <v>-1101.815053546771</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>-973.1928395913684</v>
+        <v>-876.2119722473014</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>-893.0498150265934</v>
+        <v>-1114.525599459521</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>-797.9680653986547</v>
+        <v>-978.3330649816121</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>-884.8902841290624</v>
+        <v>-718.1012320910876</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>-886.898553943189</v>
+        <v>-818.7618149884328</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>-760.5823141737586</v>
+        <v>-890.8420368838334</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>-1002.855503874607</v>
+        <v>-873.2964272961804</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>-880.7861124779163</v>
+        <v>-858.6222163303012</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>-1000.400582971817</v>
+        <v>-893.8443163125079</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>-911.1668829483968</v>
+        <v>-977.7964277939326</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>-846.108186834328</v>
+        <v>-897.3866018929206</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>-785.5706026577415</v>
+        <v>-827.2080614236776</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>-926.7732391965487</v>
+        <v>-822.0882566192512</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>-904.4909399538958</v>
+        <v>-783.175990197338</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>-785.0823617655101</v>
+        <v>-884.174831189724</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>-978.5331100627823</v>
+        <v>-807.6075544120318</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>-910.9681757052642</v>
+        <v>-979.1089312146146</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>-950.2810777419991</v>
+        <v>-1003.523730615861</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>-982.7727793000403</v>
+        <v>-1073.130068206308</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>-772.8221434354701</v>
+        <v>-750.0155624691656</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>-810.0465603589389</v>
+        <v>-912.4120780884365</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>-922.3823310010112</v>
+        <v>-974.3968497243559</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>-840.0580138900314</v>
+        <v>-752.2706836116146</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>-842.4703469348153</v>
+        <v>-968.7486025394018</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>-944.6711876776715</v>
+        <v>-726.3058896124603</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>-1078.297910974085</v>
+        <v>-861.7482941708367</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>-975.4813840874715</v>
+        <v>-829.1632224667155</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>-710.0352532557592</v>
+        <v>-785.9869244241549</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>-840.4433040011291</v>
+        <v>-892.4219904667489</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>-844.8778160141245</v>
+        <v>-732.8547631852084</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>-846.9498193394122</v>
+        <v>-998.3065720456575</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>-881.84823237398</v>
+        <v>-752.5547174965141</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>-782.2050686691864</v>
+        <v>-889.9609635708827</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>-758.9387927366143</v>
+        <v>-771.0031984514624</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>-856.0782722275163</v>
+        <v>-815.5781169174237</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>-872.719704902173</v>
+        <v>-869.3978609842628</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>-855.3732368415252</v>
+        <v>-950.1948314280781</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>-714.6515290052934</v>
+        <v>-942.96162218269</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>-821.2201252747566</v>
+        <v>-1000.092969309981</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>-1062.258090936372</v>
+        <v>-797.5055108526295</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>-927.1053065033728</v>
+        <v>-802.647804379635</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>-840.7891060259891</v>
+        <v>-873.4366451595181</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>-770.6521154185941</v>
+        <v>-828.3081724901085</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>-762.7557874445564</v>
+        <v>-1054.69113632943</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>-705.0804792754747</v>
+        <v>-947.880218941341</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>-985.6982393175855</v>
+        <v>-912.5443424243961</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>-803.0974375605334</v>
+        <v>-796.1546399241344</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>-647.5351402426709</v>
+        <v>-811.4122605302083</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>-936.7202809972646</v>
+        <v>-978.5733018850253</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>-800.6163437353582</v>
+        <v>-695.334206954166</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>-969.4161173987866</v>
+        <v>-986.9644129430088</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>-836.8329347909277</v>
+        <v>-766.0316870550844</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>-848.9642260198243</v>
+        <v>-920.1095891065814</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>-1015.798114743724</v>
+        <v>-928.9590341648051</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>-760.5738883865657</v>
+        <v>-794.5748713013778</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>-718.5620966780363</v>
+        <v>-853.0073977817009</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>-767.8675157319813</v>
+        <v>-890.1382882917407</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>-774.6901493450608</v>
+        <v>-831.1518738974615</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>-664.697212080902</v>
+        <v>-903.6192442007546</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>-686.0211078927097</v>
+        <v>-921.3703323623693</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>-846.1091181573145</v>
+        <v>-778.1896191800967</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>-651.3790497238916</v>
+        <v>-932.6274581680481</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>-696.2924075232258</v>
+        <v>-758.7921582934891</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>-896.0195552064654</v>
+        <v>-678.264227958614</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>-890.8289524447385</v>
+        <v>-750.0050752885238</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>-907.8712336569821</v>
+        <v>-722.6977402952624</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>-854.0712707052879</v>
+        <v>-938.7864340574228</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>-622.5653652919112</v>
+        <v>-914.4520646715515</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>-980.2380356164489</v>
+        <v>-886.7352515812693</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>-868.7326956598874</v>
+        <v>-1094.026548444453</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>-968.8810952870446</v>
+        <v>-873.8654494043532</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>-794.405128029846</v>
+        <v>-928.1289904858397</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>-910.6942707707602</v>
+        <v>-871.3131375605283</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>-877.8839235737688</v>
+        <v>-1034.5234688214</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>-742.4298397674919</v>
+        <v>-904.1180594797496</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>-756.6791594983328</v>
+        <v>-865.4929859200499</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>-969.6732869859279</v>
+        <v>-809.7828230007161</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>-652.632381723811</v>
+        <v>-857.9953567729307</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>-908.9749554190261</v>
+        <v>-801.4416218165868</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>-833.6634097216772</v>
+        <v>-958.6467900458697</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>-873.6877307956594</v>
+        <v>-951.0673303002849</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>-797.9189567154258</v>
+        <v>-914.0998938649293</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>-798.6511124585285</v>
+        <v>-809.5648044648791</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>-825.036431751897</v>
+        <v>-929.9571869929495</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>-898.761889041239</v>
+        <v>-1014.511085140835</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>-1025.810827973206</v>
+        <v>-816.483397682915</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>-759.368024987277</v>
+        <v>-940.736209063845</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>-873.6462846832617</v>
+        <v>-763.1929301485129</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>-833.6153685019025</v>
+        <v>-836.3949934286176</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>-775.1075814631615</v>
+        <v>-1015.094345202389</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>-920.2284231382599</v>
+        <v>-826.888504035992</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>-885.8778547872972</v>
+        <v>-889.9570711106782</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>-747.3964194554799</v>
+        <v>-754.1979330199212</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>-970.4669780363133</v>
+        <v>-895.82989406884</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>-777.4560217468215</v>
+        <v>-1000.545464377575</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>-946.5453505675332</v>
+        <v>-944.8204263236117</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>-907.0497277060844</v>
+        <v>-887.5498281413232</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>-762.9083019364894</v>
+        <v>-952.2009213753787</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>-837.5522150076242</v>
+        <v>-935.0788773790877</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>-953.3351643367616</v>
+        <v>-1000.542657375536</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>-842.1197467141317</v>
+        <v>-841.2641435945757</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>-913.1943025135563</v>
+        <v>-919.4196085069306</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>-807.3739083530338</v>
+        <v>-843.3544986653011</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>-928.1098125895668</v>
+        <v>-904.6282786818788</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>-933.0203663152913</v>
+        <v>-850.7183362012861</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>-795.3925489721217</v>
+        <v>-863.1478556585548</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>-861.2821313087225</v>
+        <v>-989.9676591086766</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>-745.7588870864527</v>
+        <v>-891.9959154673995</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>-907.5189642006446</v>
+        <v>-1099.667950005529</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>-765.8513628938482</v>
+        <v>-936.9189718226446</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>-834.2668389179285</v>
+        <v>-895.4115699964692</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>-819.4904279405165</v>
+        <v>-1056.383475104509</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>-861.2173883119401</v>
+        <v>-959.1057390568964</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>-726.8486865201068</v>
+        <v>-689.412687550777</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>-895.1864275432995</v>
+        <v>-856.4252001656982</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>-813.8530710828113</v>
+        <v>-816.8407707480462</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>-853.4777194276044</v>
+        <v>-869.4163758507259</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>-903.6062057992443</v>
+        <v>-934.1101903453556</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>-886.3644991837142</v>
+        <v>-1061.970801791859</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>-846.1818306264869</v>
+        <v>-645.093685028296</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>-873.2669968903884</v>
+        <v>-678.1290085697951</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>-861.2548110644985</v>
+        <v>-809.1024460955025</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>-697.9642905597331</v>
+        <v>-664.542394298073</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>-642.6374260397293</v>
+        <v>-1063.390659000864</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>-709.813882209883</v>
+        <v>-952.7231001122681</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>-879.8160504439455</v>
+        <v>-881.2668461751467</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>-835.7456179285364</v>
+        <v>-868.4688250456766</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>-994.2587507774898</v>
+        <v>-928.9006870198724</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>-773.6241044472083</v>
+        <v>-759.0123675083155</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>-869.2176030853311</v>
+        <v>-994.5985913254875</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>-789.0094978369179</v>
+        <v>-1047.86490755834</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>-699.7501262903769</v>
+        <v>-987.3048517961772</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>-961.1672929445999</v>
+        <v>-893.5437701588293</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>-914.730796370626</v>
+        <v>-847.1313113472185</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>-689.2679647989728</v>
+        <v>-898.4221038637488</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>-754.951940918516</v>
+        <v>-873.2183022894815</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>-714.3547849161199</v>
+        <v>-888.4964154034063</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>-944.8807034949712</v>
+        <v>-904.1049581826555</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>-720.9200972283379</v>
+        <v>-831.1556585331656</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>-917.8064473715193</v>
+        <v>-828.6932449873933</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>-1018.172740989431</v>
+        <v>-969.1304767600261</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>-900.7637925036038</v>
+        <v>-795.1096951572275</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>-1035.681345751278</v>
+        <v>-758.236707385684</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>-692.6805190462272</v>
+        <v>-808.3626708636192</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>-658.8373212524172</v>
+        <v>-937.7278455242983</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>-877.73966017767</v>
+        <v>-1006.656148292104</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>-887.099707549788</v>
+        <v>-875.1188494199454</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>-691.0715234490557</v>
+        <v>-896.5886004502637</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>-933.5115136942909</v>
+        <v>-916.2431502853333</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>-981.604967644095</v>
+        <v>-828.8332963985808</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>-814.5078746413251</v>
+        <v>-852.0068493484616</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>-882.8675203333056</v>
+        <v>-766.439840392829</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>-1017.138117974035</v>
+        <v>-741.4195158081238</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>-656.7972479844609</v>
+        <v>-882.5067211844384</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>-815.2822713236593</v>
+        <v>-836.402323621488</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>-876.3890302586358</v>
+        <v>-996.2580204651142</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>-754.8537410092921</v>
+        <v>-925.3125637996645</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>-750.50822721135</v>
+        <v>-1050.617546166308</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>-1023.763400801815</v>
+        <v>-595.1783497444219</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>-1012.002977942906</v>
+        <v>-780.7618443598465</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>-826.0519112647765</v>
+        <v>-884.9878748805259</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>-908.2906849312236</v>
+        <v>-847.4197424273814</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>-885.8307206088126</v>
+        <v>-822.9820440334903</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>-948.5630345014732</v>
+        <v>-908.3605485667593</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>-898.4982928313076</v>
+        <v>-901.7373341198601</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>-1031.594839308668</v>
+        <v>-790.0135474043045</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>-849.7943686048817</v>
+        <v>-777.4879115960895</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>-993.3888341251554</v>
+        <v>-753.3541210115977</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>-931.232903731238</v>
+        <v>-884.362093520935</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>-803.1439506380995</v>
+        <v>-927.7907497436107</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>-904.549249862379</v>
+        <v>-902.0083037816671</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>-933.3556728866874</v>
+        <v>-722.0324164552253</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>-905.9967823201939</v>
+        <v>-1002.259448029541</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>-848.2791828617416</v>
+        <v>-652.3258267834008</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>-963.804448794455</v>
+        <v>-1030.611940454931</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>-1075.2582371518</v>
+        <v>-802.3846929795928</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>-866.1760264334773</v>
+        <v>-885.0520712163275</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>-1025.088650847724</v>
+        <v>-881.0697724027476</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>-995.2681703793631</v>
+        <v>-866.9032257529707</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>-741.5819491914208</v>
+        <v>-781.0629391723074</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>-697.9381963200199</v>
+        <v>-938.8988108302053</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>-908.0462740372712</v>
+        <v>-831.1017360692961</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>-885.5012608408682</v>
+        <v>-778.979673018567</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>-896.2889976423178</v>
+        <v>-975.2838882442139</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>-812.7159270552046</v>
+        <v>-865.1521404824372</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>-829.5102150558333</v>
+        <v>-810.2253050274948</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>-1048.60702481347</v>
+        <v>-842.0678178011933</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>-875.1691135840492</v>
+        <v>-711.7718869012598</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>-820.2417566314297</v>
+        <v>-980.2286353012108</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>-858.9484768454106</v>
+        <v>-974.1465416851294</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>-751.7464680941144</v>
+        <v>-932.0939721633532</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>-936.3470686563196</v>
+        <v>-705.4225911966777</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>-817.4399654005146</v>
+        <v>-961.1924899844465</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>-767.9897297298496</v>
+        <v>-996.0075679964258</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>-811.6312224968005</v>
+        <v>-900.8560177523723</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>-750.3320021090734</v>
+        <v>-944.6938624887068</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>-974.1954760290141</v>
+        <v>-797.6537972952698</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>-692.6241542771796</v>
+        <v>-1081.16324920413</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>-904.1515571641447</v>
+        <v>-921.5787721321485</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>-854.2978593787973</v>
+        <v>-871.8707274874791</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>-712.521050475844</v>
+        <v>-819.2892711093538</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>-969.6007447555342</v>
+        <v>-723.8173995779971</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>-849.9155107096897</v>
+        <v>-843.6894205636295</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>-989.1029015219934</v>
+        <v>-826.0835985707155</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>-997.7278566903294</v>
+        <v>-839.245811883336</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>-843.6191109707623</v>
+        <v>-927.6562911157083</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>-904.1154575434011</v>
+        <v>-998.4395826519906</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>-663.4300473148575</v>
+        <v>-832.0116719679708</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>-653.443282580049</v>
+        <v>-1063.895395238624</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>-804.3870342706092</v>
+        <v>-960.3375779977546</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>-914.2187929914191</v>
+        <v>-858.8370596264476</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>-905.3810658912462</v>
+        <v>-895.4260444806603</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>-768.2256598916205</v>
+        <v>-672.567215165728</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>-845.6066959007735</v>
+        <v>-934.9521582689099</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>-875.0339110276291</v>
+        <v>-816.0247643780473</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>-994.2957976682565</v>
+        <v>-882.625172753722</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>-784.2234702524237</v>
+        <v>-691.0169786724935</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>-669.4973618745844</v>
+        <v>-911.3431671765719</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>-925.3797726478452</v>
+        <v>-719.0706834499074</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>-837.2543772751554</v>
+        <v>-864.4962023283424</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>-897.5175960211791</v>
+        <v>-718.1261150892771</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>-935.1748703072219</v>
+        <v>-1015.973127126153</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>-886.6286821386578</v>
+        <v>-757.3400327792619</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>-943.4432888726024</v>
+        <v>-827.4533881309582</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>-805.0260914625815</v>
+        <v>-762.9033672340568</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>-750.2507248850748</v>
+        <v>-1073.682968411753</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>-903.7901909207393</v>
+        <v>-799.2237362899692</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>-873.7188852991075</v>
+        <v>-942.8367810783093</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>-878.0592798568812</v>
+        <v>-790.5801521772619</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>-824.9032802383438</v>
+        <v>-793.345300252789</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>-964.9854242106251</v>
+        <v>-897.1729554149346</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>-925.7949083717322</v>
+        <v>-812.775282077681</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>-956.9562507202596</v>
+        <v>-1073.131103708257</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>-800.3575761138145</v>
+        <v>-822.1058132374152</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>-815.727030308485</v>
+        <v>-836.1271579088387</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>-978.4723315621829</v>
+        <v>-852.3737446063825</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>-883.2378693688458</v>
+        <v>-740.5857101960211</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>-1027.974143171407</v>
+        <v>-850.5696283082101</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>-979.8574327955296</v>
+        <v>-942.2050338813129</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>-915.2085276078906</v>
+        <v>-818.7710077452272</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>-747.1848279452352</v>
+        <v>-754.4366239709244</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>-963.6782796280853</v>
+        <v>-701.7143246154501</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>-875.2889612022414</v>
+        <v>-1043.553576942977</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>-1061.299824668476</v>
+        <v>-909.3155259549195</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>-944.6253705860084</v>
+        <v>-753.892747130993</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>-817.7354178861834</v>
+        <v>-684.6803712684108</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>-849.7676130528204</v>
+        <v>-736.3576770019919</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>-825.7410303873013</v>
+        <v>-846.8369427557951</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>-700.0688870416249</v>
+        <v>-921.7283727812345</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>-777.9301846283387</v>
+        <v>-695.4657124560964</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>-818.7839608360824</v>
+        <v>-692.1467126071426</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>-846.7860113884208</v>
+        <v>-843.2076078540628</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>-760.1164237723962</v>
+        <v>-902.5755344497775</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>-974.4851641025443</v>
+        <v>-965.3104652460161</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>-926.7937940358141</v>
+        <v>-909.1494982751261</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>-971.4537888170022</v>
+        <v>-845.6704743745358</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>-904.9790426618258</v>
+        <v>-787.7985762873999</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>-820.1467431677792</v>
+        <v>-894.7470500280111</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>-1039.185736718433</v>
+        <v>-882.7736191293561</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>-688.6802751764878</v>
+        <v>-760.3128654156195</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>-892.5551013114634</v>
+        <v>-866.772997761057</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>-825.0635811884895</v>
+        <v>-979.7891308186795</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>-825.5767852155433</v>
+        <v>-712.4729574567189</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>-840.6105335343913</v>
+        <v>-726.5593434681995</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>-944.5356452617089</v>
+        <v>-863.0407128121627</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>-662.3383636773586</v>
+        <v>-702.3012280077461</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>-833.1931238733022</v>
+        <v>-765.9285742799842</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>-892.1148352919811</v>
+        <v>-767.4625792708894</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>-845.3370862113147</v>
+        <v>-879.4933069098695</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>-1000.756930768918</v>
+        <v>-846.9966814945967</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>-836.2451806671311</v>
+        <v>-1027.412107184857</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>-932.6925334824954</v>
+        <v>-859.9754734816876</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>-790.9657555102782</v>
+        <v>-695.9660144959315</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>-815.1064523148292</v>
+        <v>-764.8439621614334</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>-991.0646249394696</v>
+        <v>-962.8523227591957</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>-783.437485181619</v>
+        <v>-750.2679234772669</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>-880.3747483401663</v>
+        <v>-720.0703451249693</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>-870.0517508553432</v>
+        <v>-752.4758602842398</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>-765.6120179609896</v>
+        <v>-726.3108426910992</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>-859.3302959347916</v>
+        <v>-860.872678520154</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>-834.7669467153044</v>
+        <v>-659.8200269783687</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>-968.656677125114</v>
+        <v>-838.3990290753369</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>-797.2355269146069</v>
+        <v>-931.0765887158683</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>-977.2482779342986</v>
+        <v>-1006.543847575155</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>-884.4707602448588</v>
+        <v>-868.2275953917091</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>-858.3888189966525</v>
+        <v>-977.676259459203</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>-779.4742691704863</v>
+        <v>-914.4287307552954</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>-833.4032128332966</v>
+        <v>-1015.608003471222</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>-836.2823685712102</v>
+        <v>-801.7095901894029</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>-848.0917139091782</v>
+        <v>-793.7183695338234</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>-800.1707584946388</v>
+        <v>-888.940925777649</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>-735.2748731979395</v>
+        <v>-864.1363558996771</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>-771.3046047675956</v>
+        <v>-794.4493167868542</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>-705.3727057491695</v>
+        <v>-884.1281873950963</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>-911.4441675553148</v>
+        <v>-852.7803357384295</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>-838.3928417774633</v>
+        <v>-845.0390772483977</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>-871.1877886154934</v>
+        <v>-827.705143686307</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>-717.8096839701949</v>
+        <v>-717.4175825206586</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>-937.2060614545614</v>
+        <v>-821.6973677721257</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>-1050.913751552072</v>
+        <v>-775.2733717573396</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>-817.3483603030967</v>
+        <v>-739.9727203912061</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>-971.2827664803681</v>
+        <v>-761.7313461680136</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>-785.6896013044212</v>
+        <v>-861.1569752707662</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>-715.9289375726609</v>
+        <v>-839.2821741991569</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>-904.8473312888884</v>
+        <v>-931.2833773505239</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>-698.4707707835706</v>
+        <v>-745.7605397341697</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>-887.9768186038243</v>
+        <v>-869.1544115456506</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>-691.414522755936</v>
+        <v>-822.5277059707771</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>-869.9916168035003</v>
+        <v>-846.5522489974877</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>-1022.180859352169</v>
+        <v>-713.4051491568047</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>-730.3914628737716</v>
+        <v>-921.2480050075937</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>-856.5577360819992</v>
+        <v>-934.2679071867403</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>-884.1769388984328</v>
+        <v>-909.1880913600287</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>-923.5182794207294</v>
+        <v>-971.9225361861969</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>-986.2509681470949</v>
+        <v>-739.1887739299035</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>-626.0912138361277</v>
+        <v>-1011.382841253063</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>-661.6676363134917</v>
+        <v>-883.4985879316423</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>-908.4594877121851</v>
+        <v>-776.9343238421986</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>-855.3218336832248</v>
+        <v>-892.0589204430423</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>-841.4835739246316</v>
+        <v>-808.611621212686</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>-1028.644991108869</v>
+        <v>-910.2019092172907</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>-874.8044522969212</v>
+        <v>-838.2735029132118</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>-763.8453188926402</v>
+        <v>-829.8536726526009</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>-822.7394447754855</v>
+        <v>-722.491820037229</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>-916.468272911442</v>
+        <v>-837.6277657598598</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>-920.0759071768358</v>
+        <v>-699.3936615320232</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>-885.633407884135</v>
+        <v>-855.081464655338</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>-875.7939765307655</v>
+        <v>-670.1561476127188</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>-748.8601428526277</v>
+        <v>-1069.065565740121</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>-1068.486749391748</v>
+        <v>-898.9729957582407</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>-776.703499797351</v>
+        <v>-814.487285658509</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>-1034.27760738011</v>
+        <v>-876.3751171981065</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>-879.3263619407348</v>
+        <v>-668.0786088004231</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>-690.0246763973266</v>
+        <v>-805.6867844195241</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>-832.8129599663098</v>
+        <v>-668.6594046658456</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>-718.12341534774</v>
+        <v>-969.7200202720567</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>-727.4127539046275</v>
+        <v>-951.4093806726183</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>-653.8791811988315</v>
+        <v>-1019.800408435663</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>-956.565696379383</v>
+        <v>-878.3109205519612</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>-830.8517361890327</v>
+        <v>-886.3003829596925</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>-983.7663599104689</v>
+        <v>-860.0935875839889</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>-877.7548724316788</v>
+        <v>-843.0931215370101</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>-1012.989134503361</v>
+        <v>-757.128270880017</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>-981.3284265598587</v>
+        <v>-932.5602092944542</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>-677.2459398616887</v>
+        <v>-680.5630433197722</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>-980.6913313882137</v>
+        <v>-985.5498126461421</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>-952.5600971690038</v>
+        <v>-942.4378139027133</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>-789.9655886475085</v>
+        <v>-822.7654148884551</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>-666.9394542211536</v>
+        <v>-879.0444871757618</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>-844.2208488976374</v>
+        <v>-1097.247114889632</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>-664.5313109077235</v>
+        <v>-758.461697941071</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>-1087.479689467692</v>
+        <v>-890.2395243037867</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>-970.6276250739295</v>
+        <v>-976.2720672177456</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>-747.6422510879179</v>
+        <v>-818.3166485964665</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>-888.9874256384264</v>
+        <v>-897.2806928969871</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>-871.6409648633462</v>
+        <v>-715.6179770329745</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>-865.8509582960481</v>
+        <v>-732.6630041729617</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>-843.3625368463986</v>
+        <v>-906.518617312292</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>-1058.90552150098</v>
+        <v>-712.2462931988395</v>
       </c>
     </row>
   </sheetData>

--- a/EconomicProject/Examples/Report_E1.xlsx
+++ b/EconomicProject/Examples/Report_E1.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>-1116:-1058</t>
+    <t>-1128:-1066</t>
   </si>
   <si>
-    <t>-1058:-1000</t>
+    <t>-1066:-1004</t>
   </si>
   <si>
-    <t>-1000:-942</t>
+    <t>-1004:-942</t>
   </si>
   <si>
-    <t>-942:-885</t>
+    <t>-942:-880</t>
   </si>
   <si>
-    <t>-885:-827</t>
+    <t>-880:-819</t>
   </si>
   <si>
-    <t>-827:-769</t>
+    <t>-819:-757</t>
   </si>
   <si>
-    <t>-769:-711</t>
+    <t>-757:-695</t>
   </si>
   <si>
-    <t>-711:-653</t>
+    <t>-695:-633</t>
   </si>
   <si>
-    <t>-653:-595</t>
+    <t>-633:-571</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1116:-1058</c:v>
+                  <c:v>-1128:-1066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1058:-1000</c:v>
+                  <c:v>-1066:-1004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1000:-942</c:v>
+                  <c:v>-1004:-942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-942:-885</c:v>
+                  <c:v>-942:-880</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-885:-827</c:v>
+                  <c:v>-880:-819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-827:-769</c:v>
+                  <c:v>-819:-757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-769:-711</c:v>
+                  <c:v>-757:-695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-711:-653</c:v>
+                  <c:v>-695:-633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-653:-595</c:v>
+                  <c:v>-633:-571</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24134,13 +24134,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>-855.5848867564846</v>
+        <v>-826.1168456406749</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24148,13 +24148,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>-1057.218372637154</v>
+        <v>-828.2779553937428</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24162,13 +24162,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>-795.6282105103522</v>
+        <v>-881.5780999349842</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24176,13 +24176,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>-942.8822302683627</v>
+        <v>-981.011859334206</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24190,13 +24190,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>-954.9957839054483</v>
+        <v>-875.3892531401065</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24204,13 +24204,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>-1036.055688114083</v>
+        <v>-1081.32792345339</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24218,13 +24218,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>-907.1705598396975</v>
+        <v>-775.6393168528872</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24232,13 +24232,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>-734.4125192802486</v>
+        <v>-921.6901127765899</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24246,13 +24246,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>-842.8783232341516</v>
+        <v>-832.9024988698953</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24260,7 +24260,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>-775.4835894317659</v>
+        <v>-778.0831624429868</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24268,7 +24268,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>-1044.018871155474</v>
+        <v>-658.4307674015917</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>-729.5553847285914</v>
+        <v>-1033.303998556368</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>-931.465481154574</v>
+        <v>-711.905753847534</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>-757.3847271093392</v>
+        <v>-1031.151900429274</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>-760.0831832955453</v>
+        <v>-742.5790638291649</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24308,7 +24308,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>-882.2977046871401</v>
+        <v>-801.2770799340691</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>-990.1949377126632</v>
+        <v>-1110.153808804697</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>-909.9621378009419</v>
+        <v>-902.7268240284736</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>-849.4272982795827</v>
+        <v>-932.191398116322</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>-836.566165545152</v>
+        <v>-745.2200038254778</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>-1061.385446365251</v>
+        <v>-733.2020683934038</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>-774.0610519991665</v>
+        <v>-881.8906434037017</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>-767.3350445974822</v>
+        <v>-1025.368687372165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>-788.0766686808806</v>
+        <v>-743.8658436449779</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>-868.5873758552668</v>
+        <v>-792.4962301466214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>-912.3667727308234</v>
+        <v>-747.5875897071834</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>-1028.530848085782</v>
+        <v>-799.2193754254949</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>-900.4886399828871</v>
+        <v>-720.5898016248559</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>-761.11833585533</v>
+        <v>-650.8142798489753</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>-946.8560017214894</v>
+        <v>-897.4383516613348</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>-903.1883287111053</v>
+        <v>-806.2633645982413</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>-801.6373195357394</v>
+        <v>-845.3957009229723</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>-864.8257492124826</v>
+        <v>-1048.198417626185</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>-652.9737128939014</v>
+        <v>-819.1561378426235</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>-804.0593985208671</v>
+        <v>-837.4737465235736</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>-902.9332853689963</v>
+        <v>-811.9585221991858</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>-884.1586266722942</v>
+        <v>-1056.251279204253</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>-695.1309079161384</v>
+        <v>-707.849653446596</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>-802.9511106035399</v>
+        <v>-822.9984365128198</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>-944.3052020211933</v>
+        <v>-704.9925848717606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>-981.2809063005236</v>
+        <v>-872.1807888517336</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>-899.667025443602</v>
+        <v>-847.421219373671</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>-724.2493872850937</v>
+        <v>-982.53511719703</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>-647.6605829266668</v>
+        <v>-763.9684091029744</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>-1004.579255736126</v>
+        <v>-810.0669829038943</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>-825.1626033358775</v>
+        <v>-707.4044834205614</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>-1059.692585941073</v>
+        <v>-1032.012699833998</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>-905.7374506972276</v>
+        <v>-908.4867449944709</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>-728.9105102620347</v>
+        <v>-766.2624697504029</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>-874.269242449854</v>
+        <v>-765.642060959367</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>-761.5235194068467</v>
+        <v>-863.589974596166</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>-840.5239860242943</v>
+        <v>-752.6639592951952</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>-846.6936253933959</v>
+        <v>-838.5492188229671</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>-801.7128565710924</v>
+        <v>-1062.656966507754</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>-692.31727144689</v>
+        <v>-946.7505932908678</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>-776.2440634718287</v>
+        <v>-816.6816701868249</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>-989.5755487510964</v>
+        <v>-803.718510631231</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>-954.6389957163041</v>
+        <v>-852.8885233786025</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>-808.7643151224351</v>
+        <v>-742.8896071238004</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>-829.7193104292285</v>
+        <v>-1055.770385449203</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>-917.4308817554888</v>
+        <v>-927.5456117459362</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>-917.1830437973417</v>
+        <v>-946.2099257590429</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>-775.2625560313631</v>
+        <v>-872.5314951863649</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>-951.2871679032602</v>
+        <v>-1008.370515928458</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>-797.9986642874532</v>
+        <v>-668.307591192647</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>-1065.260942909165</v>
+        <v>-924.167376645087</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>-826.574357869852</v>
+        <v>-882.3215312676065</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>-998.234745551036</v>
+        <v>-961.8935037159135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>-1066.664347424844</v>
+        <v>-895.8751240727413</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>-782.6920374101718</v>
+        <v>-952.5609415523611</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>-831.9983357366349</v>
+        <v>-877.1235763839012</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>-824.5944375961817</v>
+        <v>-768.5092551808566</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>-894.0485019126432</v>
+        <v>-877.7759844968621</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>-918.2213200856139</v>
+        <v>-811.3096000421539</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>-1063.451679775284</v>
+        <v>-848.8374410188204</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>-778.5322497240628</v>
+        <v>-836.2643143419673</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>-892.512024080616</v>
+        <v>-994.8871063838594</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>-846.5133804724857</v>
+        <v>-1033.150097374431</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>-735.7593898663309</v>
+        <v>-938.9350341345389</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>-801.8890335879966</v>
+        <v>-730.9126033858563</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>-926.4953488964821</v>
+        <v>-979.1885924207083</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>-955.1384389890952</v>
+        <v>-780.7909419465971</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>-721.3930163364274</v>
+        <v>-888.9563845924717</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>-856.4126184080649</v>
+        <v>-863.099249009847</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>-778.1956715970298</v>
+        <v>-749.1712379113533</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>-937.1919933211076</v>
+        <v>-851.6795099940856</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>-698.2671654092728</v>
+        <v>-951.2805501170216</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>-896.0580231236999</v>
+        <v>-927.4971505294818</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>-870.3671153243843</v>
+        <v>-919.8604063173805</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>-740.650717860242</v>
+        <v>-913.8108195933808</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>-959.2809510182962</v>
+        <v>-945.0584675087364</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>-710.5516432242811</v>
+        <v>-814.2667566704491</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>-700.4681742324643</v>
+        <v>-879.7552796265281</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>-813.802189963983</v>
+        <v>-709.508627637508</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>-795.5431696802951</v>
+        <v>-857.4582684947179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>-973.2096298742647</v>
+        <v>-775.0826648956596</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>-862.3060674867343</v>
+        <v>-890.691594168596</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>-755.1165623864792</v>
+        <v>-857.6833440989539</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>-1005.130420887572</v>
+        <v>-872.5726183915071</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>-844.4456090599627</v>
+        <v>-820.5692266151933</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>-755.6546316554513</v>
+        <v>-920.8646900641113</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>-783.3993217095758</v>
+        <v>-978.9489327759028</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>-912.9076264575148</v>
+        <v>-712.9925404214166</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>-825.9112050572751</v>
+        <v>-864.950709314776</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>-1064.540876019695</v>
+        <v>-985.8972824899251</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>-1017.96239877468</v>
+        <v>-1047.432182535625</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>-826.688429281966</v>
+        <v>-841.5276170525739</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>-972.4340493915727</v>
+        <v>-740.3119257594276</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>-629.952304923007</v>
+        <v>-879.5660423445281</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>-913.4373958488001</v>
+        <v>-749.2212128503497</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>-776.9394125189104</v>
+        <v>-841.3716346725906</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>-880.4417500835706</v>
+        <v>-716.1754824729242</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>-1107.729277658594</v>
+        <v>-807.4471205496121</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>-648.3242215527357</v>
+        <v>-996.4961508722703</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>-855.5665064942128</v>
+        <v>-823.9837885462869</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>-798.1661408218901</v>
+        <v>-669.9171495803512</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>-922.259256552554</v>
+        <v>-836.2466606697726</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>-644.7299085527225</v>
+        <v>-869.406695801467</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>-889.9414614290863</v>
+        <v>-749.4002629864142</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>-943.6264870316293</v>
+        <v>-866.7716310911148</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>-960.7996994099524</v>
+        <v>-727.5736944977615</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>-653.373976628853</v>
+        <v>-1033.288086219583</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>-792.6174582243151</v>
+        <v>-856.2710008826051</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>-881.486272494767</v>
+        <v>-777.9769045151746</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>-978.9681179229519</v>
+        <v>-990.5564183745131</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>-1042.053523981813</v>
+        <v>-851.4306605532488</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>-826.5387617901807</v>
+        <v>-789.6253578486015</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>-784.5576841736511</v>
+        <v>-1059.738282532431</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>-900.1156263406931</v>
+        <v>-781.9961624821409</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>-810.5270961288544</v>
+        <v>-1005.255818077378</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>-838.0702653113512</v>
+        <v>-674.1631850342385</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>-912.5502436656386</v>
+        <v>-963.7941146907924</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>-846.690219208542</v>
+        <v>-790.0922453422247</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>-701.408606493377</v>
+        <v>-748.5457907392838</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>-942.4606594524918</v>
+        <v>-871.1418452572098</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>-652.6657085765062</v>
+        <v>-879.4336233761555</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>-773.2367553631941</v>
+        <v>-744.4880126944234</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>-903.4690533331188</v>
+        <v>-815.4508737050636</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>-917.4184487543668</v>
+        <v>-1095.889703804994</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>-741.7652047729484</v>
+        <v>-727.0973170824722</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>-942.9068076010923</v>
+        <v>-885.7692049220775</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>-759.5240446969138</v>
+        <v>-657.280763690223</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>-855.6013868967424</v>
+        <v>-700.7394600779477</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>-840.7336121668791</v>
+        <v>-813.0597262667569</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>-702.3365570855725</v>
+        <v>-694.8334308300505</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>-779.3475296737494</v>
+        <v>-1011.930189765826</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>-882.427428376752</v>
+        <v>-1008.388142096416</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>-801.477806297592</v>
+        <v>-911.98030619247</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>-777.2087084833299</v>
+        <v>-663.3401827667219</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>-697.1040454816113</v>
+        <v>-851.7850346082719</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>-883.6547401183359</v>
+        <v>-976.5037967990373</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>-818.1967885260829</v>
+        <v>-1086.589932829264</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>-1047.898555881444</v>
+        <v>-761.9960568816432</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>-979.1102484437093</v>
+        <v>-858.381019340301</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>-888.860964324944</v>
+        <v>-885.6499553910505</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>-872.9845714227077</v>
+        <v>-1011.040290666551</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>-668.4942987310285</v>
+        <v>-777.9671996684577</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>-686.4782787727136</v>
+        <v>-952.9387470068132</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>-797.0056194703001</v>
+        <v>-825.1828469211662</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>-956.0073248691521</v>
+        <v>-1020.680576385143</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>-836.40925194097</v>
+        <v>-930.9193041966994</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>-945.5260978254057</v>
+        <v>-749.8663011389403</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>-707.9665729465323</v>
+        <v>-810.0288525209364</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>-983.6577302066743</v>
+        <v>-810.6121043458951</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>-1064.255158939043</v>
+        <v>-809.7738003326141</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>-928.2078792340801</v>
+        <v>-890.6049771408472</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>-773.7762731329874</v>
+        <v>-821.8920032162822</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>-906.9544678539573</v>
+        <v>-858.116184089369</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>-701.8098862688613</v>
+        <v>-963.4337187638833</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>-837.7994913525578</v>
+        <v>-831.1843659898317</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>-834.6041274913491</v>
+        <v>-863.3157063434267</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>-887.6475666695258</v>
+        <v>-852.0995814537679</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>-748.1941987387685</v>
+        <v>-716.3875433162823</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>-731.1977361912583</v>
+        <v>-923.0132881381143</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>-869.1459062681649</v>
+        <v>-1007.279309894232</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>-1018.286091103493</v>
+        <v>-803.5232571265697</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>-835.3996047113751</v>
+        <v>-708.4875418235831</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>-1026.486692900673</v>
+        <v>-834.1741066967694</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>-744.4210465890274</v>
+        <v>-748.1157323964251</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>-833.899162343335</v>
+        <v>-1053.756620600444</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>-887.7787588896382</v>
+        <v>-802.9550761706997</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>-1048.371073949679</v>
+        <v>-888.2525773341893</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>-987.6568702830184</v>
+        <v>-909.3350126458954</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>-802.3616099890154</v>
+        <v>-695.402638544234</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>-744.9026800280958</v>
+        <v>-952.4689419662375</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>-1011.596329975849</v>
+        <v>-889.4476750517338</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>-1006.426802345485</v>
+        <v>-786.1026566179958</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>-732.4834924356945</v>
+        <v>-817.4101537972239</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>-782.333795844982</v>
+        <v>-786.4995006488209</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>-730.6083792202509</v>
+        <v>-675.0410411895053</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>-965.1814197647415</v>
+        <v>-838.1608613804875</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>-1007.154533576542</v>
+        <v>-855.8341974771232</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>-990.3780614309543</v>
+        <v>-722.4054389679973</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>-936.2895888093462</v>
+        <v>-753.0104307912325</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>-693.9725413264958</v>
+        <v>-970.9107397984304</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>-935.8960224030701</v>
+        <v>-914.6930045170362</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>-852.6989067135428</v>
+        <v>-810.8947750119845</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>-996.8570135304055</v>
+        <v>-834.2148422453798</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>-758.7910609677809</v>
+        <v>-1002.345640481018</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>-928.6606322120388</v>
+        <v>-886.0180752518837</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>-963.3983431611739</v>
+        <v>-885.2064764570022</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>-859.423399847682</v>
+        <v>-944.4332648095128</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>-871.1797306962634</v>
+        <v>-746.8166150510842</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>-840.912306216949</v>
+        <v>-944.1802284105319</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>-852.3882948317748</v>
+        <v>-1056.643816097867</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>-866.5146176351726</v>
+        <v>-788.8258527353356</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>-828.1329570731561</v>
+        <v>-883.5622331412437</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>-685.1976163507148</v>
+        <v>-953.0750003828609</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>-691.985491630777</v>
+        <v>-801.6491785214567</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>-880.3985069924619</v>
+        <v>-922.760524384937</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>-818.554932659482</v>
+        <v>-695.0570787322026</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>-977.3135370826535</v>
+        <v>-754.7363785526917</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>-904.9275175754005</v>
+        <v>-718.1666539022115</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>-755.065363964983</v>
+        <v>-951.2293750050633</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>-908.3016986879517</v>
+        <v>-713.9708481208452</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>-787.5980582499436</v>
+        <v>-833.8618810267341</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>-684.7319464977286</v>
+        <v>-804.9023386106124</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>-926.0567509985158</v>
+        <v>-960.3408432103878</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>-773.2226289195727</v>
+        <v>-964.8657490956916</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>-816.1850107196303</v>
+        <v>-849.2207076973078</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>-787.389345602344</v>
+        <v>-773.5697604559238</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>-894.8968182539339</v>
+        <v>-695.4386902977861</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>-832.121328648031</v>
+        <v>-771.3589133421902</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>-1103.106675767154</v>
+        <v>-754.9945036898448</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>-972.5019533852275</v>
+        <v>-1042.49588120873</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>-839.0408281885938</v>
+        <v>-848.2729435532042</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>-973.0781925113995</v>
+        <v>-909.0269887500436</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>-1029.967206385613</v>
+        <v>-867.8631866342834</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>-790.3173969868075</v>
+        <v>-787.4515055534723</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>-850.7377650722452</v>
+        <v>-886.0706020512951</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>-855.1748938322166</v>
+        <v>-808.8670436718469</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>-926.4911499515736</v>
+        <v>-952.9006738757495</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>-815.8318875807277</v>
+        <v>-816.4085317589713</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>-919.8210437565333</v>
+        <v>-873.9697383116973</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>-821.0615080974613</v>
+        <v>-845.5558342634541</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>-863.579571252444</v>
+        <v>-865.9738962681339</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>-917.3523212005557</v>
+        <v>-986.1921446637044</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>-946.9558678685985</v>
+        <v>-930.4357143546541</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>-1003.120710232318</v>
+        <v>-810.8949008980873</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>-939.1627697220698</v>
+        <v>-1028.952582653244</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>-835.3409558193006</v>
+        <v>-866.5893553721224</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>-958.2424039613716</v>
+        <v>-780.682505008274</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>-818.5139962022174</v>
+        <v>-837.6698592495973</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>-854.6793422542062</v>
+        <v>-882.6082545494545</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>-760.505518053816</v>
+        <v>-873.5415010039046</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>-816.3440257729746</v>
+        <v>-938.3388151524454</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>-1098.659684863829</v>
+        <v>-983.7721997713601</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>-746.4305615965726</v>
+        <v>-828.9023455586682</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>-960.5279340901436</v>
+        <v>-850.9946030641071</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>-779.0156153693704</v>
+        <v>-1005.630347397763</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>-981.427162291374</v>
+        <v>-946.7565425622804</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>-850.606463491198</v>
+        <v>-917.9137962439377</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>-683.5399675844142</v>
+        <v>-849.9004777085097</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>-862.8425302407395</v>
+        <v>-936.1141011239417</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>-997.690185046753</v>
+        <v>-797.0560608304949</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>-1015.183758765095</v>
+        <v>-935.1314919652813</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>-821.9684734272324</v>
+        <v>-939.0133092746311</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>-814.2769765498047</v>
+        <v>-721.6313150442919</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>-988.3159076483608</v>
+        <v>-837.1172803169816</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>-986.9087276546429</v>
+        <v>-670.1010481154215</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>-797.7553948639433</v>
+        <v>-836.4312447201403</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>-971.3831497784148</v>
+        <v>-817.2852293511312</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>-830.7041358191426</v>
+        <v>-741.2708483442518</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>-792.7303058108248</v>
+        <v>-866.7777758712593</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>-868.9035542851539</v>
+        <v>-933.8469257600509</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>-736.5897866815094</v>
+        <v>-970.6446391439941</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>-1047.300638414408</v>
+        <v>-938.5292934112234</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>-1056.661958261643</v>
+        <v>-934.3699917052531</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>-838.7691182455344</v>
+        <v>-1006.556043381301</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>-815.1479894612299</v>
+        <v>-801.0531681407448</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>-725.2395692401815</v>
+        <v>-893.5540055132153</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>-840.6907586273987</v>
+        <v>-812.9337575872495</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>-800.6813222884598</v>
+        <v>-988.3450314044497</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>-842.7447626932552</v>
+        <v>-864.3314010250823</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>-898.6672156236754</v>
+        <v>-697.2588204476997</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>-962.9595208378043</v>
+        <v>-999.8186605537476</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>-832.6800480681974</v>
+        <v>-779.2106488880243</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>-875.4073234358546</v>
+        <v>-973.8578353600838</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>-800.0190312700468</v>
+        <v>-840.1596343325307</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>-894.8242082392813</v>
+        <v>-1011.754985827796</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>-1041.315143562845</v>
+        <v>-855.7690218619274</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>-788.4017227707631</v>
+        <v>-634.8352341623116</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>-952.1363847299654</v>
+        <v>-972.3794819304335</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>-867.9847832232301</v>
+        <v>-950.6927844062932</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>-815.2368003091741</v>
+        <v>-760.3983985311979</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>-894.379544232219</v>
+        <v>-891.1732120223874</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>-806.6895183121883</v>
+        <v>-974.5217998907654</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>-709.16839093713</v>
+        <v>-702.9752242941215</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>-991.2884991986156</v>
+        <v>-811.4277407862849</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>-657.4766525181603</v>
+        <v>-865.2141129148298</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>-863.0621043930554</v>
+        <v>-663.6382588156072</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>-921.9689944056952</v>
+        <v>-742.0019055993597</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>-841.0646650228953</v>
+        <v>-860.6237455028105</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>-1104.196273799794</v>
+        <v>-824.8750777370844</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>-792.0530050686936</v>
+        <v>-840.9176784936606</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>-1038.142836213166</v>
+        <v>-708.5627844777242</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>-1061.493941894877</v>
+        <v>-893.8187734978613</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>-782.01100809451</v>
+        <v>-917.149909194125</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>-952.2807755057468</v>
+        <v>-915.3875549036983</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>-782.1874670700286</v>
+        <v>-859.2129094260537</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>-823.1245822829723</v>
+        <v>-1012.997282625897</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>-843.9831749351215</v>
+        <v>-947.8233170728091</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>-812.5182406853155</v>
+        <v>-796.202690373357</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>-700.0650357669418</v>
+        <v>-917.4087039105027</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>-836.041436831705</v>
+        <v>-855.3786444492677</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>-862.7157373386804</v>
+        <v>-1035.000926415224</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>-900.2238973288864</v>
+        <v>-887.1465122974161</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>-984.760717962635</v>
+        <v>-837.7084820806632</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>-995.2661805039518</v>
+        <v>-935.5645672058604</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>-666.5110557175473</v>
+        <v>-914.2800007568927</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>-909.8472264224883</v>
+        <v>-958.6690174595949</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>-874.0351154109779</v>
+        <v>-684.2025620180437</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>-942.809641860524</v>
+        <v>-883.9795285107164</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>-963.091639356202</v>
+        <v>-739.9639277845667</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>-868.0043983889515</v>
+        <v>-801.1896373844868</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>-887.0264540449972</v>
+        <v>-883.5205298815728</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>-1005.055032615287</v>
+        <v>-933.0887038147825</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>-773.4444553321169</v>
+        <v>-690.1764854743684</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>-852.1235596670449</v>
+        <v>-758.0876733287074</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>-943.1354232154958</v>
+        <v>-855.0875922895407</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>-909.4443775053126</v>
+        <v>-779.0982874554046</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>-757.812676082057</v>
+        <v>-722.8110535593</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>-828.9644419761426</v>
+        <v>-674.7918351045438</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>-985.0173042786731</v>
+        <v>-1084.32485337556</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>-758.4308070433606</v>
+        <v>-817.8889891267543</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>-769.7318079187781</v>
+        <v>-670.5621659928079</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>-868.2496494082631</v>
+        <v>-1033.446143541172</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>-800.0662826757883</v>
+        <v>-939.1180047528524</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>-890.4717884522042</v>
+        <v>-946.4981258696774</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>-848.3223956059228</v>
+        <v>-907.7350523201447</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>-909.2973626336158</v>
+        <v>-958.4213725805922</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>-1068.580990210128</v>
+        <v>-778.8879447287055</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>-800.1006437517361</v>
+        <v>-895.8232196849082</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>-734.8427667679873</v>
+        <v>-914.7999429225014</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>-764.1390699490047</v>
+        <v>-775.3509451141472</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>-985.8953106774037</v>
+        <v>-1000.575371753294</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>-910.036903943763</v>
+        <v>-570.937859283739</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>-820.0192195092936</v>
+        <v>-905.1100126064797</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>-827.5693671412624</v>
+        <v>-840.5207836736395</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>-778.4103334080985</v>
+        <v>-832.2082208592869</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>-889.131479772185</v>
+        <v>-755.0950515658081</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>-897.2985345207827</v>
+        <v>-794.3621668119232</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>-940.4900029819892</v>
+        <v>-770.9263653253814</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>-999.6519790781795</v>
+        <v>-749.8062241405653</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>-826.4273483732484</v>
+        <v>-745.7847531749765</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>-930.6930253875014</v>
+        <v>-885.0041348097745</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>-874.6924100769837</v>
+        <v>-821.1914821193654</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>-856.0815592856894</v>
+        <v>-986.9353132301979</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>-842.5171444542819</v>
+        <v>-1059.372492001418</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>-992.4493065096437</v>
+        <v>-925.5447992600973</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>-886.0681492443748</v>
+        <v>-894.196353050527</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>-1080.623877752444</v>
+        <v>-1042.454065748653</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>-782.5527168068261</v>
+        <v>-804.4658729174566</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>-854.1094292858012</v>
+        <v>-751.3149208076205</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>-801.0970170383544</v>
+        <v>-830.5356425155435</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>-833.9218630830437</v>
+        <v>-666.1253197447242</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>-757.4653569976239</v>
+        <v>-1033.003646969928</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>-850.144251409836</v>
+        <v>-863.9210994607487</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>-658.6428105371889</v>
+        <v>-913.5982818585724</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>-764.4741893649121</v>
+        <v>-809.46911474884</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>-769.2303927761247</v>
+        <v>-846.735753343903</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>-886.1031029942056</v>
+        <v>-789.7678105043216</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>-701.4742670861343</v>
+        <v>-763.5211973734849</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>-832.3105161306024</v>
+        <v>-855.2921728540997</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>-923.0932781505298</v>
+        <v>-844.4444055836028</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>-771.3879958579743</v>
+        <v>-775.2670235306505</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>-796.3665414822913</v>
+        <v>-1007.098007062539</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>-861.3712145153536</v>
+        <v>-754.553561404805</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>-782.2301982319437</v>
+        <v>-952.7704301387373</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>-857.245131077258</v>
+        <v>-1093.770429938268</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>-960.2556107769561</v>
+        <v>-998.0307472791703</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>-809.3010191592248</v>
+        <v>-878.0558779815206</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>-1019.078355107863</v>
+        <v>-996.9761050624976</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>-900.9702653281155</v>
+        <v>-715.2135044736448</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>-955.2779979440337</v>
+        <v>-911.8565921662765</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>-784.1701058519998</v>
+        <v>-875.5774578313872</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>-873.0756699997962</v>
+        <v>-917.6560413370801</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>-1016.38329424223</v>
+        <v>-782.7053865678889</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>-659.8221744982668</v>
+        <v>-1025.358800296031</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>-916.0475593038173</v>
+        <v>-940.0298124685988</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>-685.0447070081464</v>
+        <v>-972.0184342643255</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>-787.0689061451147</v>
+        <v>-832.0133078174915</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>-963.5578337711563</v>
+        <v>-773.1101760863137</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>-737.4225635287227</v>
+        <v>-752.5090008806544</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>-782.3806410933576</v>
+        <v>-831.8392033354213</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>-877.4262089473804</v>
+        <v>-711.5191308184586</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>-832.7590307980782</v>
+        <v>-860.788705902121</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>-969.4696410850945</v>
+        <v>-890.8301630771485</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>-746.4768797288716</v>
+        <v>-868.9874506658764</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>-904.1994940042595</v>
+        <v>-723.7783794926485</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>-1009.330660379012</v>
+        <v>-840.7055835907669</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>-797.001503496928</v>
+        <v>-898.4022795731751</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>-895.4370819283444</v>
+        <v>-893.9250941023141</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>-746.5857896611803</v>
+        <v>-943.2725254415661</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>-956.4473483762609</v>
+        <v>-945.3464237550081</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>-778.6634502759941</v>
+        <v>-909.9267625570768</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>-619.0374541713476</v>
+        <v>-902.8399873448041</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>-902.6979603327633</v>
+        <v>-757.1036136110878</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>-851.7986598774745</v>
+        <v>-889.7840294102151</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>-809.2938575115824</v>
+        <v>-956.6753513533606</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>-662.688098408421</v>
+        <v>-917.2590791787121</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>-938.5989557941341</v>
+        <v>-969.1406542422781</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>-966.9643898442617</v>
+        <v>-958.0098784272128</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>-962.0095816220623</v>
+        <v>-911.8879134224372</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>-850.9277220765241</v>
+        <v>-828.0364739484244</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>-799.8995939822054</v>
+        <v>-953.1016627317878</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>-641.866073585748</v>
+        <v>-719.1356935182819</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>-852.4132770762741</v>
+        <v>-712.9092970286415</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>-1071.758903043357</v>
+        <v>-819.1701040811098</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>-1004.69263319961</v>
+        <v>-792.8324909947453</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>-932.0722886815523</v>
+        <v>-812.273336135102</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>-839.7205757738817</v>
+        <v>-798.8871014800765</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>-1037.715209763262</v>
+        <v>-673.7219488105609</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>-732.6131037047301</v>
+        <v>-742.9384580791512</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>-871.6201466135736</v>
+        <v>-937.314578112536</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>-902.5707731998593</v>
+        <v>-869.594390788718</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>-1013.772236988517</v>
+        <v>-908.0743730890052</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>-875.8743486912801</v>
+        <v>-960.1981142443722</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>-897.1408316785812</v>
+        <v>-1037.543753220868</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>-766.240268238696</v>
+        <v>-968.7531917493908</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>-698.5842524982675</v>
+        <v>-1017.146056457637</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>-818.313127721556</v>
+        <v>-948.0239363731362</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>-830.8799707099412</v>
+        <v>-802.2102339724898</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>-825.7364820328356</v>
+        <v>-785.7488705956904</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>-888.2128085130711</v>
+        <v>-916.1978918103744</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>-1074.067720324223</v>
+        <v>-864.7126874074115</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>-766.2992816382477</v>
+        <v>-805.4323197245822</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>-886.1963383089437</v>
+        <v>-818.9801665671945</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>-1035.080578971664</v>
+        <v>-843.092708631344</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>-888.1334939974822</v>
+        <v>-834.24408606305</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>-935.0231506612223</v>
+        <v>-1043.814193693122</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>-862.7920542294204</v>
+        <v>-1050.469705510488</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>-897.0875194195195</v>
+        <v>-919.1698555091814</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>-913.2853860973089</v>
+        <v>-845.4537415337008</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>-870.5239977304886</v>
+        <v>-1064.686206383601</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>-939.6185792933184</v>
+        <v>-936.2381251868563</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>-832.9780336722181</v>
+        <v>-742.0803720805781</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>-971.8090582945886</v>
+        <v>-983.8423057545535</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>-1079.211577138594</v>
+        <v>-913.266679764321</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>-985.7152719299813</v>
+        <v>-758.1125182541886</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>-765.8450960019603</v>
+        <v>-882.6183998389644</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>-944.447784707417</v>
+        <v>-813.0350047805885</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>-862.1651451650534</v>
+        <v>-664.6684373756534</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>-865.6640461718609</v>
+        <v>-873.7025441532644</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>-866.4962828571623</v>
+        <v>-957.3227404962024</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>-884.0895033805932</v>
+        <v>-817.062669248822</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>-1051.12459290217</v>
+        <v>-866.9381303840873</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>-1032.590364512794</v>
+        <v>-932.5396360870152</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>-891.9575765855018</v>
+        <v>-910.4221906922826</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>-665.7678780073231</v>
+        <v>-1001.779589545357</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>-734.4957339088609</v>
+        <v>-814.5557781096785</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>-1028.496670461755</v>
+        <v>-864.7806470154658</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>-673.2792049294862</v>
+        <v>-808.5848713932833</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>-893.7454827864361</v>
+        <v>-732.7793282272793</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>-930.2513224031461</v>
+        <v>-1026.129167400324</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>-815.5188562831488</v>
+        <v>-911.1006399223954</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>-748.4958153557109</v>
+        <v>-969.191928150746</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>-1010.410759035212</v>
+        <v>-1000.745351829285</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>-897.7953806357932</v>
+        <v>-971.4578704513729</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>-809.9317081620859</v>
+        <v>-853.3835848551067</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>-993.7257815840036</v>
+        <v>-720.378343491807</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>-983.1047899464226</v>
+        <v>-751.4323672350074</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>-833.5953867497781</v>
+        <v>-723.9038011757621</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>-757.5799685456334</v>
+        <v>-835.505703874972</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>-765.571807821442</v>
+        <v>-636.4130419808572</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>-861.8489158886277</v>
+        <v>-986.8466926263646</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>-718.4353876173612</v>
+        <v>-904.4333327638176</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>-735.9968383405555</v>
+        <v>-785.2350261134426</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>-728.0135799524146</v>
+        <v>-846.5915520703098</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>-914.0542024569522</v>
+        <v>-794.2868250750874</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>-959.8737411651301</v>
+        <v>-713.1377520307681</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>-966.1340754092491</v>
+        <v>-801.3599448505778</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>-885.9523086222243</v>
+        <v>-797.2616227849062</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>-818.9431380317017</v>
+        <v>-751.645914197344</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>-1023.922248810337</v>
+        <v>-1050.904632170045</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>-762.9500662703866</v>
+        <v>-713.160178740994</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>-768.1013907980722</v>
+        <v>-849.2702960591266</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>-964.4401284206083</v>
+        <v>-770.7514829551322</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>-915.5713024762056</v>
+        <v>-824.4016859714245</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>-901.3790933309178</v>
+        <v>-720.4418353078476</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>-961.7920984276846</v>
+        <v>-1097.250049037494</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>-979.6916440428952</v>
+        <v>-972.041864040898</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>-932.0421287117912</v>
+        <v>-851.9974426201558</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>-832.420246538143</v>
+        <v>-861.3569887475105</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>-993.2877434378837</v>
+        <v>-773.2807268110549</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>-865.9441252962495</v>
+        <v>-944.4626654517944</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>-922.5778627408857</v>
+        <v>-867.4498012403787</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>-805.9899373119326</v>
+        <v>-798.1129535432586</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>-836.4750472894269</v>
+        <v>-717.277016413935</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>-978.9641373102799</v>
+        <v>-1076.012850011806</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>-1007.978849451836</v>
+        <v>-842.3292466745568</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>-635.2199886695702</v>
+        <v>-804.9929311983035</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>-748.8651496472296</v>
+        <v>-977.1471358094698</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>-826.2304029532801</v>
+        <v>-779.4550008715405</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>-837.3580639311571</v>
+        <v>-699.5893312122121</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>-1057.569076579041</v>
+        <v>-822.4300409848559</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>-781.2724279869446</v>
+        <v>-856.2798643974071</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>-928.1502758172194</v>
+        <v>-993.3562594218084</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>-729.0270171333088</v>
+        <v>-840.6956435011562</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>-701.2932884273991</v>
+        <v>-789.5598710695675</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>-843.0548880731515</v>
+        <v>-1027.357315246734</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>-857.1341815685544</v>
+        <v>-842.5493808682863</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>-696.5755246445431</v>
+        <v>-803.4103352929221</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>-938.1126451430796</v>
+        <v>-981.9704136867014</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>-911.3135151290797</v>
+        <v>-972.5816033219016</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>-917.210233057644</v>
+        <v>-882.1228553626921</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>-973.2753322835184</v>
+        <v>-813.256782135433</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>-755.1660176566834</v>
+        <v>-689.4772137512122</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>-991.4365847665279</v>
+        <v>-949.9628352919974</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>-776.5178693141664</v>
+        <v>-864.97386571814</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>-785.4001813787505</v>
+        <v>-1050.980759019012</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>-932.0412870347568</v>
+        <v>-880.0647109958043</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>-786.2615724457737</v>
+        <v>-1084.900986167047</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>-899.3190162704851</v>
+        <v>-996.8714152485609</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>-826.5244130861821</v>
+        <v>-991.4722699866617</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>-845.6676410182248</v>
+        <v>-894.9095815162981</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>-893.1453980538496</v>
+        <v>-812.1243398010947</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>-915.6207332901081</v>
+        <v>-923.059812083767</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>-711.1623813529008</v>
+        <v>-995.5591208886289</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>-642.5238029138264</v>
+        <v>-865.5537018061046</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>-1009.606566280054</v>
+        <v>-987.2745731918602</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>-849.1186963947176</v>
+        <v>-793.0278554752842</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>-787.6852279577537</v>
+        <v>-1012.521365411242</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>-938.0754674930882</v>
+        <v>-938.8229133533529</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>-851.8531717478189</v>
+        <v>-921.9717169611506</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>-865.3584711855236</v>
+        <v>-814.8302356929955</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>-1048.580387409774</v>
+        <v>-903.419832896734</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>-1026.27304694186</v>
+        <v>-726.8832374392478</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>-1027.991246324281</v>
+        <v>-617.7746845247424</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>-643.8796299616938</v>
+        <v>-958.1778484276401</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>-839.6231080497488</v>
+        <v>-849.7900238667216</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>-861.79304254746</v>
+        <v>-963.1959494735534</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>-886.7805462368327</v>
+        <v>-975.5271194943881</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>-821.991602865608</v>
+        <v>-629.7748161149029</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>-852.0936583271513</v>
+        <v>-812.2324132240288</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>-674.0543201085807</v>
+        <v>-744.8476025750516</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>-873.2739896844056</v>
+        <v>-743.0197912735422</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>-800.8829891872324</v>
+        <v>-832.9633960634</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>-880.2448381051449</v>
+        <v>-1097.749020005998</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>-1009.221150251249</v>
+        <v>-926.5307297895291</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>-990.8569467228754</v>
+        <v>-915.5062487760905</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>-978.3473772526268</v>
+        <v>-809.3373821167758</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>-949.6090862365908</v>
+        <v>-1048.056821627358</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>-927.895926895371</v>
+        <v>-826.3852147778513</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>-840.2855119169245</v>
+        <v>-901.0844182074062</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>-814.0106559006159</v>
+        <v>-802.4666856223801</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>-1052.57549244916</v>
+        <v>-905.0656373898587</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>-990.205352819696</v>
+        <v>-831.7273054303708</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>-1071.899272178563</v>
+        <v>-1035.912254182104</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>-655.368759912073</v>
+        <v>-804.7771320407379</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>-907.5235312200119</v>
+        <v>-914.18407025588</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>-819.0967010465956</v>
+        <v>-899.5818339855098</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>-663.8287124539086</v>
+        <v>-1010.927466213927</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>-898.5344242110501</v>
+        <v>-1105.708820799517</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>-914.1623633661166</v>
+        <v>-774.6103645327531</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>-890.7568105990498</v>
+        <v>-1062.65865203313</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>-817.6474151598713</v>
+        <v>-766.0296458421741</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>-655.0157804130978</v>
+        <v>-889.6792832574412</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>-832.3648144775858</v>
+        <v>-850.4983006340732</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>-995.2242145917596</v>
+        <v>-782.3836477693388</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>-852.906791785594</v>
+        <v>-753.5634645801223</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>-851.2036184860805</v>
+        <v>-958.1196696949801</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>-953.8807680577786</v>
+        <v>-1111.836198599548</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>-773.366981343056</v>
+        <v>-851.5244046112782</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>-968.6214560661971</v>
+        <v>-1041.837893810015</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>-734.5390447533289</v>
+        <v>-811.2770442333568</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>-764.5039951587343</v>
+        <v>-758.4889117255898</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>-886.8408818298032</v>
+        <v>-978.6053908622046</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>-917.0121179861754</v>
+        <v>-802.5932041218829</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>-746.5958580413889</v>
+        <v>-630.8983840549381</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>-795.843662240813</v>
+        <v>-895.9110256608021</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>-1030.99772957194</v>
+        <v>-727.1301962409706</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>-970.091734231437</v>
+        <v>-671.4773594134176</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>-1009.476639297472</v>
+        <v>-722.9925250575751</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>-792.0717254145983</v>
+        <v>-1039.954757030338</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>-806.7189858155434</v>
+        <v>-870.2933171763485</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>-812.0466443283349</v>
+        <v>-824.7989146799919</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>-1116.136833130723</v>
+        <v>-924.3345266038103</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>-852.5007943068816</v>
+        <v>-1093.249443758994</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>-878.4012451397282</v>
+        <v>-950.278668739721</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>-799.3551111873279</v>
+        <v>-868.4478563491959</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>-916.2457966090616</v>
+        <v>-699.6566619109617</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>-971.6784106239852</v>
+        <v>-855.7638475349128</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>-855.6522759310435</v>
+        <v>-903.3119022522783</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>-745.7280594195702</v>
+        <v>-808.1751449059725</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>-661.7320664563092</v>
+        <v>-838.2256542023246</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>-942.7195616802885</v>
+        <v>-798.1649576985171</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>-1015.802607408897</v>
+        <v>-916.6072080979691</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>-938.1057759178058</v>
+        <v>-909.8195678053941</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>-892.4136773377342</v>
+        <v>-813.315961792326</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>-784.6444437693913</v>
+        <v>-846.6693093637742</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>-843.9407949116282</v>
+        <v>-907.1179052328034</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>-793.8164738901593</v>
+        <v>-863.6512283158972</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>-936.2147878096185</v>
+        <v>-857.4736291257557</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>-910.6050946968016</v>
+        <v>-916.7115572868004</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>-881.1064805305506</v>
+        <v>-690.9308660337605</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>-1050.083134566814</v>
+        <v>-851.815668841698</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>-855.6944588483217</v>
+        <v>-1013.4023575876</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>-868.3616432763937</v>
+        <v>-928.3011785720819</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>-808.5258425871864</v>
+        <v>-692.1834982406716</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>-914.5489302557461</v>
+        <v>-1048.558517253014</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>-929.2292941352747</v>
+        <v>-833.1377735553272</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>-819.9828806819155</v>
+        <v>-896.3614892515601</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>-970.9496118319623</v>
+        <v>-834.6435117993009</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>-855.5536621144386</v>
+        <v>-772.7956709494651</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>-895.5350542182244</v>
+        <v>-818.5887061184065</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>-831.1809046640299</v>
+        <v>-816.1935860342758</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>-890.9825798434414</v>
+        <v>-1024.659496303864</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>-928.9296337694303</v>
+        <v>-984.4834584337027</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>-724.7930373074886</v>
+        <v>-653.8457249866682</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>-916.5711122289786</v>
+        <v>-924.72792426083</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>-891.8630802942539</v>
+        <v>-936.4057934589058</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>-775.9489953210388</v>
+        <v>-753.7305700092201</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>-1002.114711704712</v>
+        <v>-1001.629379168134</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>-880.3108704762539</v>
+        <v>-749.8050533606264</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>-828.7466196303905</v>
+        <v>-1094.67917693808</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>-870.2075245218855</v>
+        <v>-745.2375001844811</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>-697.2301216129727</v>
+        <v>-663.6404008628833</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>-889.1788107093023</v>
+        <v>-1048.13856452714</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>-1074.010313973764</v>
+        <v>-872.8736551993643</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>-881.2667862979824</v>
+        <v>-802.6905170922055</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>-684.571034697606</v>
+        <v>-752.0998639242123</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>-884.163581626805</v>
+        <v>-986.8272196946616</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>-731.5339229384934</v>
+        <v>-880.045347029103</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>-923.6589532521746</v>
+        <v>-788.1966718904139</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>-969.5776777990528</v>
+        <v>-760.1038688362694</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>-945.1028099993636</v>
+        <v>-908.2485119113805</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>-869.5069804261658</v>
+        <v>-869.8545672710432</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>-803.3251081455138</v>
+        <v>-705.9787941612861</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>-1071.743677187446</v>
+        <v>-744.2048264677694</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>-854.2388578269214</v>
+        <v>-692.8737070726819</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>-728.8454510638297</v>
+        <v>-806.7573757932919</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>-972.2146211047138</v>
+        <v>-781.4278693426438</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>-937.6898521386966</v>
+        <v>-956.072442901146</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>-680.0774544843225</v>
+        <v>-818.2510904819507</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>-877.7093289510066</v>
+        <v>-876.9836476326003</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>-994.8080226016996</v>
+        <v>-897.3922623276476</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>-800.6843362933917</v>
+        <v>-915.8165806983004</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>-955.5297137298371</v>
+        <v>-770.3622075126041</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>-845.1220256528804</v>
+        <v>-928.3291169061341</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>-1101.815053546771</v>
+        <v>-763.5025637880751</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>-876.2119722473014</v>
+        <v>-1028.680502597002</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>-1114.525599459521</v>
+        <v>-912.8914290677242</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>-978.3330649816121</v>
+        <v>-822.8929897752497</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>-718.1012320910876</v>
+        <v>-740.6256891149811</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>-818.7618149884328</v>
+        <v>-755.3440642859667</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>-890.8420368838334</v>
+        <v>-955.5941432431375</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>-873.2964272961804</v>
+        <v>-925.6711458312609</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>-858.6222163303012</v>
+        <v>-823.9025814824637</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>-893.8443163125079</v>
+        <v>-798.611285068828</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>-977.7964277939326</v>
+        <v>-743.4080828491503</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>-897.3866018929206</v>
+        <v>-943.1861116461696</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>-827.2080614236776</v>
+        <v>-701.988483754039</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>-822.0882566192512</v>
+        <v>-961.2661314818978</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>-783.175990197338</v>
+        <v>-1010.413330370199</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>-884.174831189724</v>
+        <v>-950.898770513812</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>-807.6075544120318</v>
+        <v>-810.8091413797484</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>-979.1089312146146</v>
+        <v>-813.6657548699282</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>-1003.523730615861</v>
+        <v>-907.9713911851334</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>-1073.130068206308</v>
+        <v>-916.2767634212883</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>-750.0155624691656</v>
+        <v>-1040.278872318154</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>-912.4120780884365</v>
+        <v>-848.7608283905392</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>-974.3968497243559</v>
+        <v>-731.5781143575658</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>-752.2706836116146</v>
+        <v>-725.7758511424481</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>-968.7486025394018</v>
+        <v>-883.9280661347303</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>-726.3058896124603</v>
+        <v>-864.0500790498332</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>-861.7482941708367</v>
+        <v>-783.5089222083686</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>-829.1632224667155</v>
+        <v>-809.0388511568057</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>-785.9869244241549</v>
+        <v>-728.25206317557</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>-892.4219904667489</v>
+        <v>-800.343350237377</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>-732.8547631852084</v>
+        <v>-695.9610329475495</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>-998.3065720456575</v>
+        <v>-1041.965796767406</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>-752.5547174965141</v>
+        <v>-901.2540109650425</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>-889.9609635708827</v>
+        <v>-840.4626440793764</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>-771.0031984514624</v>
+        <v>-771.9198468772593</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>-815.5781169174237</v>
+        <v>-883.8194635420348</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>-869.3978609842628</v>
+        <v>-772.5050525856285</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>-950.1948314280781</v>
+        <v>-973.0785038351144</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>-942.96162218269</v>
+        <v>-868.3433049326372</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>-1000.092969309981</v>
+        <v>-843.140610022004</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>-797.5055108526295</v>
+        <v>-799.3959531347239</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>-802.647804379635</v>
+        <v>-681.1566367685394</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>-873.4366451595181</v>
+        <v>-859.2097038285938</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>-828.3081724901085</v>
+        <v>-900.382091529819</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>-1054.69113632943</v>
+        <v>-920.1883565172144</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>-947.880218941341</v>
+        <v>-940.9115570608817</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>-912.5443424243961</v>
+        <v>-903.7504087955122</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>-796.1546399241344</v>
+        <v>-905.3783730304398</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>-811.4122605302083</v>
+        <v>-1045.217615872682</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>-978.5733018850253</v>
+        <v>-825.9815872975557</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>-695.334206954166</v>
+        <v>-955.5467896974163</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>-986.9644129430088</v>
+        <v>-954.3824135028368</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>-766.0316870550844</v>
+        <v>-744.4904641602706</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>-920.1095891065814</v>
+        <v>-865.2564876928446</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>-928.9590341648051</v>
+        <v>-758.18769008556</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>-794.5748713013778</v>
+        <v>-784.9812807098081</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>-853.0073977817009</v>
+        <v>-720.8280716984767</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>-890.1382882917407</v>
+        <v>-781.4652140637836</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>-831.1518738974615</v>
+        <v>-893.0150667377201</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>-903.6192442007546</v>
+        <v>-881.0508863155649</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>-921.3703323623693</v>
+        <v>-855.1862577630872</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>-778.1896191800967</v>
+        <v>-951.130470200756</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>-932.6274581680481</v>
+        <v>-857.483977879918</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>-758.7921582934891</v>
+        <v>-852.3248422162874</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>-678.264227958614</v>
+        <v>-853.2901381018531</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>-750.0050752885238</v>
+        <v>-932.1187256372162</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>-722.6977402952624</v>
+        <v>-784.196385231895</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>-938.7864340574228</v>
+        <v>-730.1496488867197</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>-914.4520646715515</v>
+        <v>-1013.294154871052</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>-886.7352515812693</v>
+        <v>-849.6635044732666</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>-1094.026548444453</v>
+        <v>-973.4764005942609</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>-873.8654494043532</v>
+        <v>-1040.976171831722</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>-928.1289904858397</v>
+        <v>-1050.877830073799</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>-871.3131375605283</v>
+        <v>-863.6701873893644</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>-1034.5234688214</v>
+        <v>-909.5580229751729</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>-904.1180594797496</v>
+        <v>-1061.489661417467</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>-865.4929859200499</v>
+        <v>-816.4139931359945</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>-809.7828230007161</v>
+        <v>-868.2875848251769</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>-857.9953567729307</v>
+        <v>-762.5841526569532</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>-801.4416218165868</v>
+        <v>-927.8232195473579</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>-958.6467900458697</v>
+        <v>-779.7821674412999</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>-951.0673303002849</v>
+        <v>-860.8577139703634</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>-914.0998938649293</v>
+        <v>-802.2447400809699</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>-809.5648044648791</v>
+        <v>-963.9584869835514</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>-929.9571869929495</v>
+        <v>-834.5487704801602</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>-1014.511085140835</v>
+        <v>-861.7193128473666</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>-816.483397682915</v>
+        <v>-1053.006905008345</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>-940.736209063845</v>
+        <v>-864.2983498222163</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>-763.1929301485129</v>
+        <v>-843.7539861019103</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>-836.3949934286176</v>
+        <v>-795.8574576567438</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>-1015.094345202389</v>
+        <v>-809.2951006905162</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>-826.888504035992</v>
+        <v>-1000.800988186527</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>-889.9570711106782</v>
+        <v>-961.7950542171581</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>-754.1979330199212</v>
+        <v>-840.8394960062687</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>-895.82989406884</v>
+        <v>-932.4342110475401</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>-1000.545464377575</v>
+        <v>-726.2722223962014</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>-944.8204263236117</v>
+        <v>-776.0393634677295</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>-887.5498281413232</v>
+        <v>-741.9532833869906</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>-952.2009213753787</v>
+        <v>-713.1658332692446</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>-935.0788773790877</v>
+        <v>-1082.339766842653</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>-1000.542657375536</v>
+        <v>-752.6060986494788</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>-841.2641435945757</v>
+        <v>-745.0027972015598</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>-919.4196085069306</v>
+        <v>-958.9270100969162</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>-843.3544986653011</v>
+        <v>-797.4832070002951</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>-904.6282786818788</v>
+        <v>-805.9949529752727</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>-850.7183362012861</v>
+        <v>-741.2923412050341</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>-863.1478556585548</v>
+        <v>-823.0085679118139</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>-989.9676591086766</v>
+        <v>-1068.064301957601</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>-891.9959154673995</v>
+        <v>-951.1930940475816</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>-1099.667950005529</v>
+        <v>-694.3949945428049</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>-936.9189718226446</v>
+        <v>-815.1150587708137</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>-895.4115699964692</v>
+        <v>-985.7215173122323</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>-1056.383475104509</v>
+        <v>-842.366629930948</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>-959.1057390568964</v>
+        <v>-909.0922988599846</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>-689.412687550777</v>
+        <v>-864.3807278938498</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>-856.4252001656982</v>
+        <v>-781.2752971171684</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>-816.8407707480462</v>
+        <v>-889.7103167749</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>-869.4163758507259</v>
+        <v>-703.6913622663109</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>-934.1101903453556</v>
+        <v>-1051.605595477697</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>-1061.970801791859</v>
+        <v>-763.8472347097485</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>-645.093685028296</v>
+        <v>-865.9115786847301</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>-678.1290085697951</v>
+        <v>-771.4946283300378</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>-809.1024460955025</v>
+        <v>-677.8084926483527</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>-664.542394298073</v>
+        <v>-996.361556497121</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>-1063.390659000864</v>
+        <v>-923.4468266061911</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>-952.7231001122681</v>
+        <v>-788.9190078306726</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>-881.2668461751467</v>
+        <v>-654.3344747748571</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>-868.4688250456766</v>
+        <v>-1004.306836300092</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>-928.9006870198724</v>
+        <v>-925.8280240322861</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>-759.0123675083155</v>
+        <v>-937.1345745287207</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>-994.5985913254875</v>
+        <v>-826.422057936762</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>-1047.86490755834</v>
+        <v>-1061.49390290812</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>-987.3048517961772</v>
+        <v>-873.6095636031462</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>-893.5437701588293</v>
+        <v>-855.2024654026518</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>-847.1313113472185</v>
+        <v>-787.9438235100451</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>-898.4221038637488</v>
+        <v>-856.9911072199912</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>-873.2183022894815</v>
+        <v>-868.495596200714</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>-888.4964154034063</v>
+        <v>-876.4184763251602</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>-904.1049581826555</v>
+        <v>-789.4191963202807</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>-831.1556585331656</v>
+        <v>-940.3566306199158</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>-828.6932449873933</v>
+        <v>-900.6185845423959</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>-969.1304767600261</v>
+        <v>-926.8315792765683</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>-795.1096951572275</v>
+        <v>-864.0132182469717</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>-758.236707385684</v>
+        <v>-715.6298251622353</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>-808.3626708636192</v>
+        <v>-969.9094476572557</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>-937.7278455242983</v>
+        <v>-921.2967670484895</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>-1006.656148292104</v>
+        <v>-788.4978178579632</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>-875.1188494199454</v>
+        <v>-851.9234682038907</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>-896.5886004502637</v>
+        <v>-909.729624856752</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>-916.2431502853333</v>
+        <v>-739.1839009459213</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>-828.8332963985808</v>
+        <v>-899.2736057071101</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>-852.0068493484616</v>
+        <v>-723.8635329855919</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>-766.439840392829</v>
+        <v>-1071.93748302808</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>-741.4195158081238</v>
+        <v>-1037.002140312993</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>-882.5067211844384</v>
+        <v>-881.2127952017091</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>-836.402323621488</v>
+        <v>-914.3291118039447</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>-996.2580204651142</v>
+        <v>-782.3708735610721</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>-925.3125637996645</v>
+        <v>-1095.502214177903</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>-1050.617546166308</v>
+        <v>-865.7707472800943</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>-595.1783497444219</v>
+        <v>-1085.446773074613</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>-780.7618443598465</v>
+        <v>-723.8755517323007</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>-884.9878748805259</v>
+        <v>-902.5210813124763</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>-847.4197424273814</v>
+        <v>-915.1674379298798</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>-822.9820440334903</v>
+        <v>-890.909583810993</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>-908.3605485667593</v>
+        <v>-908.2808447637411</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>-901.7373341198601</v>
+        <v>-920.6196220585819</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>-790.0135474043045</v>
+        <v>-772.2330532002612</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>-777.4879115960895</v>
+        <v>-986.7264712404705</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>-753.3541210115977</v>
+        <v>-1052.121846232722</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>-884.362093520935</v>
+        <v>-696.896036273664</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>-927.7907497436107</v>
+        <v>-668.1160764441664</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>-902.0083037816671</v>
+        <v>-988.7694618208744</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>-722.0324164552253</v>
+        <v>-839.1011684885841</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>-1002.259448029541</v>
+        <v>-913.078404273028</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>-652.3258267834008</v>
+        <v>-768.2012134384036</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>-1030.611940454931</v>
+        <v>-1026.849637827142</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>-802.3846929795928</v>
+        <v>-814.2056101775598</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>-885.0520712163275</v>
+        <v>-732.718164316924</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>-881.0697724027476</v>
+        <v>-937.0095375404317</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>-866.9032257529707</v>
+        <v>-795.3245287206412</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>-781.0629391723074</v>
+        <v>-840.8862576873154</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>-938.8988108302053</v>
+        <v>-661.6683213441115</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>-831.1017360692961</v>
+        <v>-789.0750916181651</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>-778.979673018567</v>
+        <v>-991.9932556441223</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>-975.2838882442139</v>
+        <v>-871.008360624878</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>-865.1521404824372</v>
+        <v>-928.8002649620234</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>-810.2253050274948</v>
+        <v>-852.7889680950689</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>-842.0678178011933</v>
+        <v>-763.8795528287952</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>-711.7718869012598</v>
+        <v>-687.3079599122049</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>-980.2286353012108</v>
+        <v>-962.2012212979247</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>-974.1465416851294</v>
+        <v>-750.3493146372419</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>-932.0939721633532</v>
+        <v>-645.2366908184373</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>-705.4225911966777</v>
+        <v>-881.4429384711432</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>-961.1924899844465</v>
+        <v>-855.9458001816466</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>-996.0075679964258</v>
+        <v>-697.4368096372626</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>-900.8560177523723</v>
+        <v>-860.007245512019</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>-944.6938624887068</v>
+        <v>-797.9897154023517</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>-797.6537972952698</v>
+        <v>-889.1279436733856</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>-1081.16324920413</v>
+        <v>-938.6383723939975</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>-921.5787721321485</v>
+        <v>-822.2276957734151</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>-871.8707274874791</v>
+        <v>-918.4783998819964</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>-819.2892711093538</v>
+        <v>-893.6764055269995</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>-723.8173995779971</v>
+        <v>-651.6948477306546</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>-843.6894205636295</v>
+        <v>-851.3562998437371</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>-826.0835985707155</v>
+        <v>-897.9763185999611</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>-839.245811883336</v>
+        <v>-1007.902377275472</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>-927.6562911157083</v>
+        <v>-863.9112305158477</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>-998.4395826519906</v>
+        <v>-944.9148482332979</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>-832.0116719679708</v>
+        <v>-720.7438164910352</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>-1063.895395238624</v>
+        <v>-844.6056639832657</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>-960.3375779977546</v>
+        <v>-837.2617828856265</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>-858.8370596264476</v>
+        <v>-859.3820605959129</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>-895.4260444806603</v>
+        <v>-771.3436240397621</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>-672.567215165728</v>
+        <v>-735.903889506142</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>-934.9521582689099</v>
+        <v>-1003.031626560139</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>-816.0247643780473</v>
+        <v>-823.9517527941151</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>-882.625172753722</v>
+        <v>-1030.239644231497</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>-691.0169786724935</v>
+        <v>-1014.419535124992</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>-911.3431671765719</v>
+        <v>-748.6147386724233</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>-719.0706834499074</v>
+        <v>-710.1908908267394</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>-864.4962023283424</v>
+        <v>-733.0380607024174</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>-718.1261150892771</v>
+        <v>-839.7120128986934</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>-1015.973127126153</v>
+        <v>-811.0471716368731</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>-757.3400327792619</v>
+        <v>-951.7373615752358</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>-827.4533881309582</v>
+        <v>-732.8687591366991</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>-762.9033672340568</v>
+        <v>-860.5024013978855</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>-1073.682968411753</v>
+        <v>-883.2264394252985</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>-799.2237362899692</v>
+        <v>-682.73387077249</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>-942.8367810783093</v>
+        <v>-840.6153640150147</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>-790.5801521772619</v>
+        <v>-1065.875693096938</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>-793.345300252789</v>
+        <v>-902.0914152734529</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>-897.1729554149346</v>
+        <v>-1026.619863779913</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>-812.775282077681</v>
+        <v>-1097.660600768984</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>-1073.131103708257</v>
+        <v>-859.5475370454539</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>-822.1058132374152</v>
+        <v>-735.384100298597</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>-836.1271579088387</v>
+        <v>-930.3558767378892</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>-852.3737446063825</v>
+        <v>-954.7921150997016</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>-740.5857101960211</v>
+        <v>-851.8576092185394</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>-850.5696283082101</v>
+        <v>-798.6459140420159</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>-942.2050338813129</v>
+        <v>-790.3762454159257</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>-818.7710077452272</v>
+        <v>-839.9453717223112</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>-754.4366239709244</v>
+        <v>-824.5394810727248</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>-701.7143246154501</v>
+        <v>-886.040204065951</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>-1043.553576942977</v>
+        <v>-956.5888765416394</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>-909.3155259549195</v>
+        <v>-982.0352582089927</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>-753.892747130993</v>
+        <v>-786.6018597503984</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>-684.6803712684108</v>
+        <v>-995.5283638928962</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>-736.3576770019919</v>
+        <v>-1000.282152030719</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>-846.8369427557951</v>
+        <v>-786.0094685984888</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>-921.7283727812345</v>
+        <v>-719.4037962901389</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>-695.4657124560964</v>
+        <v>-888.4548399441842</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>-692.1467126071426</v>
+        <v>-1011.246785677411</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>-843.2076078540628</v>
+        <v>-831.1740177594742</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>-902.5755344497775</v>
+        <v>-756.2663877629557</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>-965.3104652460161</v>
+        <v>-821.289617504806</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>-909.1494982751261</v>
+        <v>-745.1944600437523</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>-845.6704743745358</v>
+        <v>-920.3653069696904</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>-787.7985762873999</v>
+        <v>-946.1214801865319</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>-894.7470500280111</v>
+        <v>-826.3849187491653</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>-882.7736191293561</v>
+        <v>-854.8513429024114</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>-760.3128654156195</v>
+        <v>-820.3948385665248</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>-866.772997761057</v>
+        <v>-873.7943412976442</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>-979.7891308186795</v>
+        <v>-791.8234603754699</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>-712.4729574567189</v>
+        <v>-932.51208557844</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>-726.5593434681995</v>
+        <v>-1039.392303844552</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>-863.0407128121627</v>
+        <v>-805.6820959760105</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>-702.3012280077461</v>
+        <v>-829.6204035792347</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>-765.9285742799842</v>
+        <v>-735.0554287669257</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>-767.4625792708894</v>
+        <v>-1018.068022566421</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>-879.4933069098695</v>
+        <v>-920.9295883453856</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>-846.9966814945967</v>
+        <v>-960.6215497781354</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>-1027.412107184857</v>
+        <v>-962.9182138177907</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>-859.9754734816876</v>
+        <v>-940.183235931376</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>-695.9660144959315</v>
+        <v>-1014.407759592782</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>-764.8439621614334</v>
+        <v>-1038.697229592045</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>-962.8523227591957</v>
+        <v>-1002.121052600191</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>-750.2679234772669</v>
+        <v>-972.680390009037</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>-720.0703451249693</v>
+        <v>-794.6850913164008</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>-752.4758602842398</v>
+        <v>-696.6622272412789</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>-726.3108426910992</v>
+        <v>-767.4239078776119</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>-860.872678520154</v>
+        <v>-886.0965076871214</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>-659.8200269783687</v>
+        <v>-661.2417628393476</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>-838.3990290753369</v>
+        <v>-826.5886973427366</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>-931.0765887158683</v>
+        <v>-1030.572550666486</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>-1006.543847575155</v>
+        <v>-754.9931783896861</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>-868.2275953917091</v>
+        <v>-1050.377357965443</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>-977.676259459203</v>
+        <v>-870.5903559512465</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>-914.4287307552954</v>
+        <v>-1009.479644954492</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>-1015.608003471222</v>
+        <v>-943.7955903995544</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>-801.7095901894029</v>
+        <v>-872.3754076488007</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>-793.7183695338234</v>
+        <v>-951.2282239488317</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>-888.940925777649</v>
+        <v>-1128.030746671669</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>-864.1363558996771</v>
+        <v>-899.4617650590424</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>-794.4493167868542</v>
+        <v>-862.0065024909775</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>-884.1281873950963</v>
+        <v>-751.1937093665522</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>-852.7803357384295</v>
+        <v>-736.5256252042784</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>-845.0390772483977</v>
+        <v>-952.466853753922</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>-827.705143686307</v>
+        <v>-633.4477662563016</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>-717.4175825206586</v>
+        <v>-709.4413830453251</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>-821.6973677721257</v>
+        <v>-894.1902077269168</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>-775.2733717573396</v>
+        <v>-876.6596861411142</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>-739.9727203912061</v>
+        <v>-817.5115287337726</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>-761.7313461680136</v>
+        <v>-820.2248012697613</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>-861.1569752707662</v>
+        <v>-748.8475522157401</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>-839.2821741991569</v>
+        <v>-748.6558206844426</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>-931.2833773505239</v>
+        <v>-985.3574093975575</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>-745.7605397341697</v>
+        <v>-866.3289588989782</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>-869.1544115456506</v>
+        <v>-748.9903613161497</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>-822.5277059707771</v>
+        <v>-895.7136349454296</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>-846.5522489974877</v>
+        <v>-742.4345009261992</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>-713.4051491568047</v>
+        <v>-806.1074191697149</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>-921.2480050075937</v>
+        <v>-886.4597734737263</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>-934.2679071867403</v>
+        <v>-896.2869650353869</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>-909.1880913600287</v>
+        <v>-754.1916932894405</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>-971.9225361861969</v>
+        <v>-820.9984253748578</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>-739.1887739299035</v>
+        <v>-1013.855690164379</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>-1011.382841253063</v>
+        <v>-891.3560235154847</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>-883.4985879316423</v>
+        <v>-882.4117122634202</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>-776.9343238421986</v>
+        <v>-792.0510257779223</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>-892.0589204430423</v>
+        <v>-861.8461794455992</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>-808.611621212686</v>
+        <v>-1011.503548595623</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>-910.2019092172907</v>
+        <v>-739.4849572614746</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>-838.2735029132118</v>
+        <v>-898.9846364802268</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>-829.8536726526009</v>
+        <v>-727.4832250054004</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>-722.491820037229</v>
+        <v>-1008.9992728522</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>-837.6277657598598</v>
+        <v>-837.2714887427898</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>-699.3936615320232</v>
+        <v>-747.8719647455447</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>-855.081464655338</v>
+        <v>-812.921130688378</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>-670.1561476127188</v>
+        <v>-949.0283650705492</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>-1069.065565740121</v>
+        <v>-963.2720865753395</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>-898.9729957582407</v>
+        <v>-1006.371208556361</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>-814.487285658509</v>
+        <v>-859.935791762345</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>-876.3751171981065</v>
+        <v>-1002.575923448731</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>-668.0786088004231</v>
+        <v>-990.8483271831667</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>-805.6867844195241</v>
+        <v>-983.1223552479759</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>-668.6594046658456</v>
+        <v>-725.3139878100963</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>-969.7200202720567</v>
+        <v>-895.902743299714</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>-951.4093806726183</v>
+        <v>-762.9150590608292</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>-1019.800408435663</v>
+        <v>-928.4710750904256</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>-878.3109205519612</v>
+        <v>-928.5056768876531</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>-886.3003829596925</v>
+        <v>-899.7337268479312</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>-860.0935875839889</v>
+        <v>-642.8774563314893</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>-843.0931215370101</v>
+        <v>-952.3398962404896</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>-757.128270880017</v>
+        <v>-757.6880959716043</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>-932.5602092944542</v>
+        <v>-713.6015352417959</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>-680.5630433197722</v>
+        <v>-697.8047265333652</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>-985.5498126461421</v>
+        <v>-1017.529110718582</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>-942.4378139027133</v>
+        <v>-726.5968603003259</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>-822.7654148884551</v>
+        <v>-835.4274438690319</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>-879.0444871757618</v>
+        <v>-860.5868242683478</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>-1097.247114889632</v>
+        <v>-942.6876512880892</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>-758.461697941071</v>
+        <v>-965.3795835849305</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>-890.2395243037867</v>
+        <v>-867.704142155976</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>-976.2720672177456</v>
+        <v>-865.5645882149452</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>-818.3166485964665</v>
+        <v>-898.9001247551738</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>-897.2806928969871</v>
+        <v>-911.9444270217417</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>-715.6179770329745</v>
+        <v>-764.1073073569286</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>-732.6630041729617</v>
+        <v>-895.8453081627973</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>-906.518617312292</v>
+        <v>-919.1673714251782</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>-712.2462931988395</v>
+        <v>-978.8279740707524</v>
       </c>
     </row>
   </sheetData>
